--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAFD752-04F7-4E32-8392-FF6E5C28E859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A80F169-E595-4E31-A81F-28A172054116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="990" windowWidth="18000" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="1425" windowWidth="18000" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品詳細画面" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>システム名</t>
   </si>
@@ -192,30 +192,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <r>
-      <t>製品仕様、在庫数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>、在庫状況表示</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>在庫状況</t>
     <rPh sb="0" eb="2">
       <t>ザイコ</t>
@@ -231,16 +207,6 @@
   </si>
   <si>
     <t>取得した商品の在庫数が5以上の場合「在庫あり」、</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>取得した商品の在庫数が0の場合「在庫なし」と表示される。</t>
-    <rPh sb="16" eb="18">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -292,7 +258,17 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>JTM 2019/10/11 久保田</t>
+    <t>製品仕様、在庫数量</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取得した商品の在庫数が0の場合「完売しました」と表示される。</t>
+    <rPh sb="16" eb="18">
+      <t>カンバイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -729,35 +705,42 @@
     <xf numFmtId="19" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="19" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,13 +751,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1424,8 +1400,8 @@
   </sheetPr>
   <dimension ref="A1:BZ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD67" sqref="AD67"/>
+    <sheetView tabSelected="1" topLeftCell="H58" workbookViewId="0">
+      <selection activeCell="BG74" sqref="BG74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1434,186 +1410,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="53" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="46" t="s">
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="53" t="s">
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="49" t="s">
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="52"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="59"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="56" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="56" t="s">
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="62" t="s">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="56" t="s">
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="47"/>
-      <c r="BO2" s="48"/>
-      <c r="BP2" s="63" t="s">
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="52"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="59"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -5554,197 +5530,197 @@
       <c r="BZ51" s="4"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="54" t="str">
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="63" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="50"/>
-      <c r="AC52" s="50"/>
-      <c r="AD52" s="50"/>
-      <c r="AE52" s="50"/>
-      <c r="AF52" s="50"/>
-      <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="50"/>
-      <c r="AJ52" s="50"/>
-      <c r="AK52" s="50"/>
-      <c r="AL52" s="50"/>
-      <c r="AM52" s="50"/>
-      <c r="AN52" s="50"/>
-      <c r="AO52" s="50"/>
-      <c r="AP52" s="50"/>
-      <c r="AQ52" s="50"/>
-      <c r="AR52" s="50"/>
-      <c r="AS52" s="50"/>
-      <c r="AT52" s="50"/>
-      <c r="AU52" s="50"/>
-      <c r="AV52" s="51"/>
-      <c r="AW52" s="53" t="s">
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="58"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="58"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="58"/>
+      <c r="AJ52" s="58"/>
+      <c r="AK52" s="58"/>
+      <c r="AL52" s="58"/>
+      <c r="AM52" s="58"/>
+      <c r="AN52" s="58"/>
+      <c r="AO52" s="58"/>
+      <c r="AP52" s="58"/>
+      <c r="AQ52" s="58"/>
+      <c r="AR52" s="58"/>
+      <c r="AS52" s="58"/>
+      <c r="AT52" s="58"/>
+      <c r="AU52" s="58"/>
+      <c r="AV52" s="61"/>
+      <c r="AW52" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AX52" s="50"/>
-      <c r="AY52" s="50"/>
-      <c r="AZ52" s="50"/>
-      <c r="BA52" s="51"/>
-      <c r="BB52" s="49" t="str">
+      <c r="AX52" s="58"/>
+      <c r="AY52" s="58"/>
+      <c r="AZ52" s="58"/>
+      <c r="BA52" s="61"/>
+      <c r="BB52" s="57" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="50"/>
-      <c r="BD52" s="50"/>
-      <c r="BE52" s="50"/>
-      <c r="BF52" s="50"/>
-      <c r="BG52" s="50"/>
-      <c r="BH52" s="50"/>
-      <c r="BI52" s="50"/>
-      <c r="BJ52" s="51"/>
-      <c r="BK52" s="53" t="s">
+      <c r="BC52" s="58"/>
+      <c r="BD52" s="58"/>
+      <c r="BE52" s="58"/>
+      <c r="BF52" s="58"/>
+      <c r="BG52" s="58"/>
+      <c r="BH52" s="58"/>
+      <c r="BI52" s="58"/>
+      <c r="BJ52" s="61"/>
+      <c r="BK52" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="BL52" s="50"/>
-      <c r="BM52" s="50"/>
-      <c r="BN52" s="50"/>
-      <c r="BO52" s="51"/>
-      <c r="BP52" s="49" t="str">
+      <c r="BL52" s="58"/>
+      <c r="BM52" s="58"/>
+      <c r="BN52" s="58"/>
+      <c r="BO52" s="61"/>
+      <c r="BP52" s="57" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ52" s="50"/>
-      <c r="BR52" s="50"/>
-      <c r="BS52" s="50"/>
-      <c r="BT52" s="50"/>
-      <c r="BU52" s="50"/>
-      <c r="BV52" s="50"/>
-      <c r="BW52" s="50"/>
-      <c r="BX52" s="52"/>
+      <c r="BQ52" s="58"/>
+      <c r="BR52" s="58"/>
+      <c r="BS52" s="58"/>
+      <c r="BT52" s="58"/>
+      <c r="BU52" s="58"/>
+      <c r="BV52" s="58"/>
+      <c r="BW52" s="58"/>
+      <c r="BX52" s="59"/>
       <c r="BY52" s="18"/>
       <c r="BZ52" s="18"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="57" t="str">
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="53" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="48"/>
-      <c r="Z53" s="56" t="s">
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="57" t="str">
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="53" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF53" s="47"/>
-      <c r="AG53" s="47"/>
-      <c r="AH53" s="47"/>
-      <c r="AI53" s="47"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="47"/>
-      <c r="AL53" s="47"/>
-      <c r="AM53" s="47"/>
-      <c r="AN53" s="47"/>
-      <c r="AO53" s="47"/>
-      <c r="AP53" s="47"/>
-      <c r="AQ53" s="47"/>
-      <c r="AR53" s="47"/>
-      <c r="AS53" s="47"/>
-      <c r="AT53" s="47"/>
-      <c r="AU53" s="47"/>
-      <c r="AV53" s="48"/>
-      <c r="AW53" s="56" t="s">
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="51"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="51"/>
+      <c r="AO53" s="51"/>
+      <c r="AP53" s="51"/>
+      <c r="AQ53" s="51"/>
+      <c r="AR53" s="51"/>
+      <c r="AS53" s="51"/>
+      <c r="AT53" s="51"/>
+      <c r="AU53" s="51"/>
+      <c r="AV53" s="52"/>
+      <c r="AW53" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AX53" s="47"/>
-      <c r="AY53" s="47"/>
-      <c r="AZ53" s="47"/>
-      <c r="BA53" s="48"/>
-      <c r="BB53" s="46" t="str">
+      <c r="AX53" s="51"/>
+      <c r="AY53" s="51"/>
+      <c r="AZ53" s="51"/>
+      <c r="BA53" s="52"/>
+      <c r="BB53" s="55" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/10/11</v>
       </c>
-      <c r="BC53" s="47"/>
-      <c r="BD53" s="47"/>
-      <c r="BE53" s="47"/>
-      <c r="BF53" s="47"/>
-      <c r="BG53" s="47"/>
-      <c r="BH53" s="47"/>
-      <c r="BI53" s="47"/>
-      <c r="BJ53" s="48"/>
-      <c r="BK53" s="56" t="s">
+      <c r="BC53" s="51"/>
+      <c r="BD53" s="51"/>
+      <c r="BE53" s="51"/>
+      <c r="BF53" s="51"/>
+      <c r="BG53" s="51"/>
+      <c r="BH53" s="51"/>
+      <c r="BI53" s="51"/>
+      <c r="BJ53" s="52"/>
+      <c r="BK53" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BL53" s="47"/>
-      <c r="BM53" s="47"/>
-      <c r="BN53" s="47"/>
-      <c r="BO53" s="48"/>
-      <c r="BP53" s="46" t="str">
+      <c r="BL53" s="51"/>
+      <c r="BM53" s="51"/>
+      <c r="BN53" s="51"/>
+      <c r="BO53" s="52"/>
+      <c r="BP53" s="55" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>久保田　善之</v>
       </c>
-      <c r="BQ53" s="47"/>
-      <c r="BR53" s="47"/>
-      <c r="BS53" s="47"/>
-      <c r="BT53" s="47"/>
-      <c r="BU53" s="47"/>
-      <c r="BV53" s="47"/>
-      <c r="BW53" s="47"/>
-      <c r="BX53" s="55"/>
+      <c r="BQ53" s="51"/>
+      <c r="BR53" s="51"/>
+      <c r="BS53" s="51"/>
+      <c r="BT53" s="51"/>
+      <c r="BU53" s="51"/>
+      <c r="BV53" s="51"/>
+      <c r="BW53" s="51"/>
+      <c r="BX53" s="56"/>
       <c r="BY53" s="18"/>
       <c r="BZ53" s="18"/>
     </row>
@@ -6609,7 +6585,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
@@ -6706,9 +6682,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="67" t="s">
-        <v>57</v>
-      </c>
+      <c r="X65" s="49"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -6976,14 +6950,14 @@
       <c r="AN68" s="23"/>
       <c r="AO68" s="4"/>
       <c r="AP68" s="4"/>
-      <c r="AQ68" s="64" t="s">
+      <c r="AQ68" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW68" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AW68" s="65" t="s">
+      <c r="AX68" s="46" t="s">
         <v>51</v>
-      </c>
-      <c r="AX68" s="64" t="s">
-        <v>52</v>
       </c>
       <c r="BA68" s="21"/>
       <c r="BB68" s="21"/>
@@ -7061,8 +7035,8 @@
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
       <c r="AP69" s="4"/>
-      <c r="AX69" s="64" t="s">
-        <v>53</v>
+      <c r="AX69" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="BA69" s="21"/>
       <c r="BB69" s="21"/>
@@ -7140,8 +7114,8 @@
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
       <c r="AP70" s="4"/>
-      <c r="AX70" s="64" t="s">
-        <v>54</v>
+      <c r="AX70" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="BA70" s="21"/>
       <c r="BB70" s="21"/>
@@ -7212,8 +7186,8 @@
       <c r="AU71" s="21"/>
       <c r="AV71" s="21"/>
       <c r="AW71" s="21"/>
-      <c r="AX71" s="66" t="s">
-        <v>55</v>
+      <c r="AX71" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="AY71" s="21"/>
       <c r="AZ71" s="21"/>
@@ -7229,8 +7203,8 @@
       <c r="BJ71" s="21"/>
       <c r="BK71" s="21"/>
       <c r="BL71" s="21"/>
-      <c r="BM71" s="66" t="s">
-        <v>56</v>
+      <c r="BM71" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="BN71" s="21"/>
       <c r="BO71" s="21"/>
@@ -8653,197 +8627,197 @@
       <c r="BZ90" s="4"/>
     </row>
     <row r="91" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A91" s="59" t="s">
+      <c r="A91" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="54" t="str">
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="63" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="50"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="50"/>
-      <c r="Q91" s="50"/>
-      <c r="R91" s="50"/>
-      <c r="S91" s="50"/>
-      <c r="T91" s="50"/>
-      <c r="U91" s="50"/>
-      <c r="V91" s="50"/>
-      <c r="W91" s="50"/>
-      <c r="X91" s="50"/>
-      <c r="Y91" s="50"/>
-      <c r="Z91" s="50"/>
-      <c r="AA91" s="50"/>
-      <c r="AB91" s="50"/>
-      <c r="AC91" s="50"/>
-      <c r="AD91" s="50"/>
-      <c r="AE91" s="50"/>
-      <c r="AF91" s="50"/>
-      <c r="AG91" s="50"/>
-      <c r="AH91" s="50"/>
-      <c r="AI91" s="50"/>
-      <c r="AJ91" s="50"/>
-      <c r="AK91" s="50"/>
-      <c r="AL91" s="50"/>
-      <c r="AM91" s="50"/>
-      <c r="AN91" s="50"/>
-      <c r="AO91" s="50"/>
-      <c r="AP91" s="50"/>
-      <c r="AQ91" s="50"/>
-      <c r="AR91" s="50"/>
-      <c r="AS91" s="50"/>
-      <c r="AT91" s="50"/>
-      <c r="AU91" s="50"/>
-      <c r="AV91" s="51"/>
-      <c r="AW91" s="53" t="s">
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="58"/>
+      <c r="S91" s="58"/>
+      <c r="T91" s="58"/>
+      <c r="U91" s="58"/>
+      <c r="V91" s="58"/>
+      <c r="W91" s="58"/>
+      <c r="X91" s="58"/>
+      <c r="Y91" s="58"/>
+      <c r="Z91" s="58"/>
+      <c r="AA91" s="58"/>
+      <c r="AB91" s="58"/>
+      <c r="AC91" s="58"/>
+      <c r="AD91" s="58"/>
+      <c r="AE91" s="58"/>
+      <c r="AF91" s="58"/>
+      <c r="AG91" s="58"/>
+      <c r="AH91" s="58"/>
+      <c r="AI91" s="58"/>
+      <c r="AJ91" s="58"/>
+      <c r="AK91" s="58"/>
+      <c r="AL91" s="58"/>
+      <c r="AM91" s="58"/>
+      <c r="AN91" s="58"/>
+      <c r="AO91" s="58"/>
+      <c r="AP91" s="58"/>
+      <c r="AQ91" s="58"/>
+      <c r="AR91" s="58"/>
+      <c r="AS91" s="58"/>
+      <c r="AT91" s="58"/>
+      <c r="AU91" s="58"/>
+      <c r="AV91" s="61"/>
+      <c r="AW91" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AX91" s="50"/>
-      <c r="AY91" s="50"/>
-      <c r="AZ91" s="50"/>
-      <c r="BA91" s="51"/>
-      <c r="BB91" s="49" t="str">
+      <c r="AX91" s="58"/>
+      <c r="AY91" s="58"/>
+      <c r="AZ91" s="58"/>
+      <c r="BA91" s="61"/>
+      <c r="BB91" s="57" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC91" s="50"/>
-      <c r="BD91" s="50"/>
-      <c r="BE91" s="50"/>
-      <c r="BF91" s="50"/>
-      <c r="BG91" s="50"/>
-      <c r="BH91" s="50"/>
-      <c r="BI91" s="50"/>
-      <c r="BJ91" s="51"/>
-      <c r="BK91" s="53" t="s">
+      <c r="BC91" s="58"/>
+      <c r="BD91" s="58"/>
+      <c r="BE91" s="58"/>
+      <c r="BF91" s="58"/>
+      <c r="BG91" s="58"/>
+      <c r="BH91" s="58"/>
+      <c r="BI91" s="58"/>
+      <c r="BJ91" s="61"/>
+      <c r="BK91" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="BL91" s="50"/>
-      <c r="BM91" s="50"/>
-      <c r="BN91" s="50"/>
-      <c r="BO91" s="51"/>
-      <c r="BP91" s="49" t="str">
+      <c r="BL91" s="58"/>
+      <c r="BM91" s="58"/>
+      <c r="BN91" s="58"/>
+      <c r="BO91" s="61"/>
+      <c r="BP91" s="57" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ91" s="50"/>
-      <c r="BR91" s="50"/>
-      <c r="BS91" s="50"/>
-      <c r="BT91" s="50"/>
-      <c r="BU91" s="50"/>
-      <c r="BV91" s="50"/>
-      <c r="BW91" s="50"/>
-      <c r="BX91" s="52"/>
+      <c r="BQ91" s="58"/>
+      <c r="BR91" s="58"/>
+      <c r="BS91" s="58"/>
+      <c r="BT91" s="58"/>
+      <c r="BU91" s="58"/>
+      <c r="BV91" s="58"/>
+      <c r="BW91" s="58"/>
+      <c r="BX91" s="59"/>
       <c r="BY91" s="18"/>
       <c r="BZ91" s="18"/>
     </row>
     <row r="92" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A92" s="58" t="s">
+      <c r="A92" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="57" t="str">
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="53" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="48"/>
-      <c r="Z92" s="56" t="s">
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="51"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="51"/>
+      <c r="T92" s="51"/>
+      <c r="U92" s="51"/>
+      <c r="V92" s="51"/>
+      <c r="W92" s="51"/>
+      <c r="X92" s="51"/>
+      <c r="Y92" s="52"/>
+      <c r="Z92" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="48"/>
-      <c r="AE92" s="57" t="str">
+      <c r="AA92" s="51"/>
+      <c r="AB92" s="51"/>
+      <c r="AC92" s="51"/>
+      <c r="AD92" s="52"/>
+      <c r="AE92" s="53" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="47"/>
-      <c r="AI92" s="47"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="47"/>
-      <c r="AL92" s="47"/>
-      <c r="AM92" s="47"/>
-      <c r="AN92" s="47"/>
-      <c r="AO92" s="47"/>
-      <c r="AP92" s="47"/>
-      <c r="AQ92" s="47"/>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="48"/>
-      <c r="AW92" s="56" t="s">
+      <c r="AF92" s="51"/>
+      <c r="AG92" s="51"/>
+      <c r="AH92" s="51"/>
+      <c r="AI92" s="51"/>
+      <c r="AJ92" s="51"/>
+      <c r="AK92" s="51"/>
+      <c r="AL92" s="51"/>
+      <c r="AM92" s="51"/>
+      <c r="AN92" s="51"/>
+      <c r="AO92" s="51"/>
+      <c r="AP92" s="51"/>
+      <c r="AQ92" s="51"/>
+      <c r="AR92" s="51"/>
+      <c r="AS92" s="51"/>
+      <c r="AT92" s="51"/>
+      <c r="AU92" s="51"/>
+      <c r="AV92" s="52"/>
+      <c r="AW92" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AX92" s="47"/>
-      <c r="AY92" s="47"/>
-      <c r="AZ92" s="47"/>
-      <c r="BA92" s="48"/>
-      <c r="BB92" s="46" t="str">
+      <c r="AX92" s="51"/>
+      <c r="AY92" s="51"/>
+      <c r="AZ92" s="51"/>
+      <c r="BA92" s="52"/>
+      <c r="BB92" s="55" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/10/11</v>
       </c>
-      <c r="BC92" s="47"/>
-      <c r="BD92" s="47"/>
-      <c r="BE92" s="47"/>
-      <c r="BF92" s="47"/>
-      <c r="BG92" s="47"/>
-      <c r="BH92" s="47"/>
-      <c r="BI92" s="47"/>
-      <c r="BJ92" s="48"/>
-      <c r="BK92" s="56" t="s">
+      <c r="BC92" s="51"/>
+      <c r="BD92" s="51"/>
+      <c r="BE92" s="51"/>
+      <c r="BF92" s="51"/>
+      <c r="BG92" s="51"/>
+      <c r="BH92" s="51"/>
+      <c r="BI92" s="51"/>
+      <c r="BJ92" s="52"/>
+      <c r="BK92" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BL92" s="47"/>
-      <c r="BM92" s="47"/>
-      <c r="BN92" s="47"/>
-      <c r="BO92" s="48"/>
-      <c r="BP92" s="46" t="str">
+      <c r="BL92" s="51"/>
+      <c r="BM92" s="51"/>
+      <c r="BN92" s="51"/>
+      <c r="BO92" s="52"/>
+      <c r="BP92" s="55" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>久保田　善之</v>
       </c>
-      <c r="BQ92" s="47"/>
-      <c r="BR92" s="47"/>
-      <c r="BS92" s="47"/>
-      <c r="BT92" s="47"/>
-      <c r="BU92" s="47"/>
-      <c r="BV92" s="47"/>
-      <c r="BW92" s="47"/>
-      <c r="BX92" s="55"/>
+      <c r="BQ92" s="51"/>
+      <c r="BR92" s="51"/>
+      <c r="BS92" s="51"/>
+      <c r="BT92" s="51"/>
+      <c r="BU92" s="51"/>
+      <c r="BV92" s="51"/>
+      <c r="BW92" s="51"/>
+      <c r="BX92" s="56"/>
       <c r="BY92" s="18"/>
       <c r="BZ92" s="18"/>
     </row>
@@ -13091,6 +13065,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="BB53:BJ53"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="F53:Y53"/>
     <mergeCell ref="BK92:BO92"/>
@@ -13107,32 +13107,6 @@
     <mergeCell ref="AE92:AV92"/>
     <mergeCell ref="BB92:BJ92"/>
     <mergeCell ref="Z92:AD92"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="BK53:BO53"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25767F2A-3524-4A6C-ADE4-F0100D319A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091E3F8-51C9-4188-BE68-E0F070B23D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>システム名</t>
   </si>
@@ -145,12 +145,6 @@
     <t>製品仕様、在庫数量</t>
   </si>
   <si>
-    <t>\N,NNN,NNNの形式で表示する。</t>
-  </si>
-  <si>
-    <t>製品仕様</t>
-  </si>
-  <si>
     <t>取得した製品仕様を表示する。</t>
   </si>
   <si>
@@ -172,18 +166,509 @@
     <t>消費税率</t>
   </si>
   <si>
-    <t>1.3.取得した消費税率と販売単価をもとに、1.1で取得した販売単価(税込)を算出する。</t>
-  </si>
-  <si>
     <t>【「カートに入れる」押下時】</t>
   </si>
   <si>
     <t>プログラム仕様書(決済画面) 参照</t>
   </si>
   <si>
-    <t>岩田</t>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>計算式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>販売単価*(1+消費税率)</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ハンバイタンカ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ショウヒゼイリツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.3.2</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.3.取得した消費税率と販売単価をもとに、1.1で取得した販売単価(税込)を算出する。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>参考価格　2019/11/11JTM07 対応　岩田侑大</t>
+    <rPh sb="0" eb="4">
+      <t>サンコウカカク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>2019/11/11JTM07 対応　岩田侑大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">取得した消費税率と参考価格をもとに、参考価格（税込）を算出する。 </t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ショウヒゼイリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>サンコウカカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼイコ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>計算式　参考価格*（1+消費税率）</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>サンコウカカク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ショウヒゼイリツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2019/11/11JTM07 対応　岩田侑大</t>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2019/11/11</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>岩田侑大</t>
     <rPh sb="0" eb="2">
       <t>イワタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>製品仕様</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>\N,NNN,NNNの形式で</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>表示する。</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>赤字で表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>参考価格</t>
+    <rPh sb="0" eb="4">
+      <t>サンコウカカク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取得した消費税率と販売単価をもとに、販売単価（税込）を算出する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ショウヒゼイリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ハンバイタンカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼイコ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.3.1で算出した参考価格を</t>
+    <rPh sb="6" eb="8">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>サンコウカカク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>\N,NNN,NNNの形式で表示し上から打消し線を挿入する。</t>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウチケ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>割引率</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.3.3</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取得した販売単価と参考価格をもとに、割引率（%表記）を算出する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ハンバイタンカ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>サンコウカカク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>計算式　（販売単価/参考価格）*100</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>サンコウカカク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2019/11/11JTM07 対応　岩田侑大</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.3.3で算出した割引率（%表記）を</t>
+    <rPh sb="6" eb="8">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2019/11/11 JTM07 対応　岩田侑大</t>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>NNN%OFFの形式で赤字表示する。</t>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.1で取得した在庫数が１個以上２０個以下のとき、</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取得した在庫数を「残りN個です」と赤字表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>０個以下の場合、カートボタンを表示せずに、</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>「完売です」と赤字表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>カンバイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2019/11/11 JTM01 対応　岩田侑大</t>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.6</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>押下することで、お問い合わせフォーム画面に遷移するボタンを設置。</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2019/11/11 JTM10 対応　岩田侑大</t>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イワタユウダイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -192,7 +677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -241,6 +726,36 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -564,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,35 +1130,38 @@
     <xf numFmtId="19" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="19" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -651,7 +1169,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,8 +1831,8 @@
   </sheetPr>
   <dimension ref="A1:BZ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BP2" sqref="BP2:BX2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AN85" sqref="AN85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1313,64 +1841,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="53" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="46" t="s">
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="BC1" s="47"/>
@@ -1381,36 +1909,36 @@
       <c r="BH1" s="47"/>
       <c r="BI1" s="47"/>
       <c r="BJ1" s="48"/>
-      <c r="BK1" s="53" t="s">
+      <c r="BK1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="49" t="s">
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="52"/>
+      <c r="BQ1" s="54"/>
+      <c r="BR1" s="54"/>
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="54"/>
+      <c r="BU1" s="54"/>
+      <c r="BV1" s="54"/>
+      <c r="BW1" s="54"/>
+      <c r="BX1" s="55"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="48"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="47"/>
@@ -1432,14 +1960,14 @@
       <c r="W2" s="47"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="48"/>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="50" t="s">
         <v>7</v>
       </c>
       <c r="AA2" s="47"/>
       <c r="AB2" s="47"/>
       <c r="AC2" s="47"/>
       <c r="AD2" s="48"/>
-      <c r="AE2" s="61"/>
+      <c r="AE2" s="62"/>
       <c r="AF2" s="47"/>
       <c r="AG2" s="47"/>
       <c r="AH2" s="47"/>
@@ -1457,14 +1985,16 @@
       <c r="AT2" s="47"/>
       <c r="AU2" s="47"/>
       <c r="AV2" s="48"/>
-      <c r="AW2" s="56" t="s">
+      <c r="AW2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AX2" s="47"/>
       <c r="AY2" s="47"/>
       <c r="AZ2" s="47"/>
       <c r="BA2" s="48"/>
-      <c r="BB2" s="46"/>
+      <c r="BB2" s="71" t="s">
+        <v>54</v>
+      </c>
       <c r="BC2" s="47"/>
       <c r="BD2" s="47"/>
       <c r="BE2" s="47"/>
@@ -1473,24 +2003,24 @@
       <c r="BH2" s="47"/>
       <c r="BI2" s="47"/>
       <c r="BJ2" s="48"/>
-      <c r="BK2" s="56" t="s">
+      <c r="BK2" s="50" t="s">
         <v>9</v>
       </c>
       <c r="BL2" s="47"/>
       <c r="BM2" s="47"/>
       <c r="BN2" s="47"/>
       <c r="BO2" s="48"/>
-      <c r="BP2" s="62" t="s">
-        <v>48</v>
+      <c r="BP2" s="60" t="s">
+        <v>55</v>
       </c>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="52"/>
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="54"/>
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="55"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -5431,109 +5961,109 @@
       <c r="BZ51" s="4"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="54" t="str">
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="59" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="50"/>
-      <c r="AC52" s="50"/>
-      <c r="AD52" s="50"/>
-      <c r="AE52" s="50"/>
-      <c r="AF52" s="50"/>
-      <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="50"/>
-      <c r="AJ52" s="50"/>
-      <c r="AK52" s="50"/>
-      <c r="AL52" s="50"/>
-      <c r="AM52" s="50"/>
-      <c r="AN52" s="50"/>
-      <c r="AO52" s="50"/>
-      <c r="AP52" s="50"/>
-      <c r="AQ52" s="50"/>
-      <c r="AR52" s="50"/>
-      <c r="AS52" s="50"/>
-      <c r="AT52" s="50"/>
-      <c r="AU52" s="50"/>
-      <c r="AV52" s="51"/>
-      <c r="AW52" s="53" t="s">
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="54"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="54"/>
+      <c r="AG52" s="54"/>
+      <c r="AH52" s="54"/>
+      <c r="AI52" s="54"/>
+      <c r="AJ52" s="54"/>
+      <c r="AK52" s="54"/>
+      <c r="AL52" s="54"/>
+      <c r="AM52" s="54"/>
+      <c r="AN52" s="54"/>
+      <c r="AO52" s="54"/>
+      <c r="AP52" s="54"/>
+      <c r="AQ52" s="54"/>
+      <c r="AR52" s="54"/>
+      <c r="AS52" s="54"/>
+      <c r="AT52" s="54"/>
+      <c r="AU52" s="54"/>
+      <c r="AV52" s="57"/>
+      <c r="AW52" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AX52" s="50"/>
-      <c r="AY52" s="50"/>
-      <c r="AZ52" s="50"/>
-      <c r="BA52" s="51"/>
-      <c r="BB52" s="49" t="str">
+      <c r="AX52" s="54"/>
+      <c r="AY52" s="54"/>
+      <c r="AZ52" s="54"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="53" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="50"/>
-      <c r="BD52" s="50"/>
-      <c r="BE52" s="50"/>
-      <c r="BF52" s="50"/>
-      <c r="BG52" s="50"/>
-      <c r="BH52" s="50"/>
-      <c r="BI52" s="50"/>
-      <c r="BJ52" s="51"/>
-      <c r="BK52" s="53" t="s">
+      <c r="BC52" s="54"/>
+      <c r="BD52" s="54"/>
+      <c r="BE52" s="54"/>
+      <c r="BF52" s="54"/>
+      <c r="BG52" s="54"/>
+      <c r="BH52" s="54"/>
+      <c r="BI52" s="54"/>
+      <c r="BJ52" s="57"/>
+      <c r="BK52" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BL52" s="50"/>
-      <c r="BM52" s="50"/>
-      <c r="BN52" s="50"/>
-      <c r="BO52" s="51"/>
-      <c r="BP52" s="49" t="str">
+      <c r="BL52" s="54"/>
+      <c r="BM52" s="54"/>
+      <c r="BN52" s="54"/>
+      <c r="BO52" s="57"/>
+      <c r="BP52" s="53" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ52" s="50"/>
-      <c r="BR52" s="50"/>
-      <c r="BS52" s="50"/>
-      <c r="BT52" s="50"/>
-      <c r="BU52" s="50"/>
-      <c r="BV52" s="50"/>
-      <c r="BW52" s="50"/>
-      <c r="BX52" s="52"/>
+      <c r="BQ52" s="54"/>
+      <c r="BR52" s="54"/>
+      <c r="BS52" s="54"/>
+      <c r="BT52" s="54"/>
+      <c r="BU52" s="54"/>
+      <c r="BV52" s="54"/>
+      <c r="BW52" s="54"/>
+      <c r="BX52" s="55"/>
       <c r="BY52" s="18"/>
       <c r="BZ52" s="18"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
       <c r="E53" s="48"/>
-      <c r="F53" s="57" t="str">
+      <c r="F53" s="49" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
@@ -5556,14 +6086,14 @@
       <c r="W53" s="47"/>
       <c r="X53" s="47"/>
       <c r="Y53" s="48"/>
-      <c r="Z53" s="56" t="s">
+      <c r="Z53" s="50" t="s">
         <v>7</v>
       </c>
       <c r="AA53" s="47"/>
       <c r="AB53" s="47"/>
       <c r="AC53" s="47"/>
       <c r="AD53" s="48"/>
-      <c r="AE53" s="57" t="str">
+      <c r="AE53" s="49" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
@@ -5584,16 +6114,15 @@
       <c r="AT53" s="47"/>
       <c r="AU53" s="47"/>
       <c r="AV53" s="48"/>
-      <c r="AW53" s="56" t="s">
+      <c r="AW53" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AX53" s="47"/>
       <c r="AY53" s="47"/>
       <c r="AZ53" s="47"/>
       <c r="BA53" s="48"/>
-      <c r="BB53" s="46" t="str">
-        <f>IF($BB$2="","",$BB$2)</f>
-        <v/>
+      <c r="BB53" s="71" t="s">
+        <v>54</v>
       </c>
       <c r="BC53" s="47"/>
       <c r="BD53" s="47"/>
@@ -5603,16 +6132,16 @@
       <c r="BH53" s="47"/>
       <c r="BI53" s="47"/>
       <c r="BJ53" s="48"/>
-      <c r="BK53" s="56" t="s">
+      <c r="BK53" s="50" t="s">
         <v>9</v>
       </c>
       <c r="BL53" s="47"/>
       <c r="BM53" s="47"/>
       <c r="BN53" s="47"/>
       <c r="BO53" s="48"/>
-      <c r="BP53" s="46" t="str">
+      <c r="BP53" s="51" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
-        <v>岩田</v>
+        <v>岩田侑大</v>
       </c>
       <c r="BQ53" s="47"/>
       <c r="BR53" s="47"/>
@@ -5621,7 +6150,7 @@
       <c r="BU53" s="47"/>
       <c r="BV53" s="47"/>
       <c r="BW53" s="47"/>
-      <c r="BX53" s="55"/>
+      <c r="BX53" s="52"/>
       <c r="BY53" s="18"/>
       <c r="BZ53" s="18"/>
     </row>
@@ -6475,7 +7004,7 @@
       <c r="BY63" s="4"/>
       <c r="BZ63" s="4"/>
     </row>
-    <row r="64" spans="1:78" ht="14.25" customHeight="1">
+    <row r="64" spans="1:78" ht="13.5">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -6494,9 +7023,12 @@
       <c r="N64" s="21"/>
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
+      <c r="Q64" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="S64" s="64" t="s">
+        <v>49</v>
+      </c>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
@@ -6528,7 +7060,7 @@
       <c r="AV64" s="21"/>
       <c r="AW64" s="22"/>
       <c r="AX64" s="26" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AY64" s="21"/>
       <c r="AZ64" s="21"/>
@@ -6543,7 +7075,9 @@
       <c r="BI64" s="21"/>
       <c r="BJ64" s="21"/>
       <c r="BK64" s="21"/>
-      <c r="BL64" s="21"/>
+      <c r="BL64" s="70" t="s">
+        <v>58</v>
+      </c>
       <c r="BM64" s="21"/>
       <c r="BN64" s="21"/>
       <c r="BO64" s="21"/>
@@ -6602,8 +7136,8 @@
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
       <c r="AP65" s="4"/>
-      <c r="AQ65" s="22" t="s">
-        <v>37</v>
+      <c r="AQ65" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="AR65" s="21"/>
       <c r="AS65" s="21"/>
@@ -6614,7 +7148,7 @@
         <v>23</v>
       </c>
       <c r="AX65" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AY65" s="21"/>
       <c r="AZ65" s="21"/>
@@ -6630,7 +7164,9 @@
       <c r="BJ65" s="21"/>
       <c r="BK65" s="21"/>
       <c r="BL65" s="21"/>
-      <c r="BM65" s="21"/>
+      <c r="BM65" s="70" t="s">
+        <v>53</v>
+      </c>
       <c r="BN65" s="21"/>
       <c r="BO65" s="21"/>
       <c r="BP65" s="21"/>
@@ -6682,7 +7218,7 @@
       <c r="AO66" s="4"/>
       <c r="AP66" s="4"/>
       <c r="AQ66" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AR66" s="28"/>
       <c r="AS66" s="28"/>
@@ -6693,7 +7229,7 @@
         <v>23</v>
       </c>
       <c r="AX66" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AY66" s="21"/>
       <c r="AZ66" s="21"/>
@@ -6729,7 +7265,7 @@
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -6777,7 +7313,7 @@
       <c r="AV67" s="29"/>
       <c r="AW67" s="28"/>
       <c r="AX67" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AY67" s="21"/>
       <c r="AZ67" s="21"/>
@@ -6851,6 +7387,15 @@
       <c r="AN68" s="23"/>
       <c r="AO68" s="4"/>
       <c r="AP68" s="4"/>
+      <c r="AQ68" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW68" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX68" s="65" t="s">
+        <v>62</v>
+      </c>
       <c r="BA68" s="21"/>
       <c r="BB68" s="21"/>
       <c r="BC68" s="21"/>
@@ -6893,7 +7438,7 @@
         <v>23</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
@@ -6927,6 +7472,9 @@
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
       <c r="AP69" s="4"/>
+      <c r="AX69" s="65" t="s">
+        <v>63</v>
+      </c>
       <c r="BA69" s="21"/>
       <c r="BB69" s="21"/>
       <c r="BC69" s="21"/>
@@ -6969,7 +7517,7 @@
         <v>23</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
@@ -7005,7 +7553,9 @@
       <c r="AP70" s="4"/>
       <c r="BA70" s="21"/>
       <c r="BB70" s="21"/>
-      <c r="BC70" s="21"/>
+      <c r="BC70" s="70" t="s">
+        <v>53</v>
+      </c>
       <c r="BD70" s="21"/>
       <c r="BE70" s="21"/>
       <c r="BF70" s="21"/>
@@ -7065,14 +7615,20 @@
       <c r="AN71" s="23"/>
       <c r="AO71" s="4"/>
       <c r="AP71" s="4"/>
-      <c r="AQ71" s="21"/>
+      <c r="AQ71" s="70" t="s">
+        <v>64</v>
+      </c>
       <c r="AR71" s="21"/>
       <c r="AS71" s="21"/>
       <c r="AT71" s="21"/>
       <c r="AU71" s="21"/>
       <c r="AV71" s="21"/>
-      <c r="AW71" s="21"/>
-      <c r="AX71" s="21"/>
+      <c r="AW71" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX71" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="AY71" s="21"/>
       <c r="AZ71" s="21"/>
       <c r="BA71" s="21"/>
@@ -7143,7 +7699,9 @@
       <c r="AU72" s="21"/>
       <c r="AV72" s="21"/>
       <c r="AW72" s="21"/>
-      <c r="AX72" s="21"/>
+      <c r="AX72" s="70" t="s">
+        <v>71</v>
+      </c>
       <c r="AY72" s="21"/>
       <c r="AZ72" s="21"/>
       <c r="BA72" s="21"/>
@@ -7177,8 +7735,8 @@
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="32" t="s">
-        <v>45</v>
+      <c r="D73" s="67" t="s">
+        <v>48</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
@@ -7228,7 +7786,9 @@
       <c r="AZ73" s="21"/>
       <c r="BA73" s="21"/>
       <c r="BB73" s="21"/>
-      <c r="BC73" s="21"/>
+      <c r="BC73" s="70" t="s">
+        <v>70</v>
+      </c>
       <c r="BD73" s="21"/>
       <c r="BE73" s="21"/>
       <c r="BF73" s="21"/>
@@ -7262,7 +7822,9 @@
       <c r="Q74" s="21"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
+      <c r="T74" s="68" t="s">
+        <v>50</v>
+      </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
@@ -7318,6 +7880,13 @@
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
+      <c r="D75" s="69">
+        <v>1.3</v>
+      </c>
+      <c r="E75" s="69"/>
+      <c r="G75" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
@@ -7345,9 +7914,13 @@
       <c r="AM75" s="5"/>
       <c r="AN75" s="23"/>
       <c r="AO75" s="4"/>
-      <c r="AP75" s="4"/>
+      <c r="AP75" s="68" t="s">
+        <v>77</v>
+      </c>
       <c r="AQ75" s="21"/>
-      <c r="AR75" s="21"/>
+      <c r="AR75" s="70" t="s">
+        <v>72</v>
+      </c>
       <c r="AS75" s="21"/>
       <c r="AT75" s="21"/>
       <c r="AU75" s="21"/>
@@ -7387,6 +7960,9 @@
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
+      <c r="G76" s="66" t="s">
+        <v>46</v>
+      </c>
       <c r="O76" s="21"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
@@ -7416,7 +7992,9 @@
       <c r="AO76" s="4"/>
       <c r="AP76" s="4"/>
       <c r="AQ76" s="21"/>
-      <c r="AR76" s="21"/>
+      <c r="AR76" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="AS76" s="21"/>
       <c r="AT76" s="21"/>
       <c r="AU76" s="21"/>
@@ -7456,6 +8034,7 @@
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
+      <c r="D77" s="65"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
@@ -7493,7 +8072,9 @@
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
       <c r="AQ77" s="21"/>
-      <c r="AR77" s="21"/>
+      <c r="AR77" s="70" t="s">
+        <v>74</v>
+      </c>
       <c r="AS77" s="21"/>
       <c r="AT77" s="21"/>
       <c r="AU77" s="21"/>
@@ -7533,7 +8114,12 @@
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="G78" s="21"/>
+      <c r="D78" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="G78" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23"/>
@@ -7568,7 +8154,9 @@
       <c r="AO78" s="4"/>
       <c r="AP78" s="4"/>
       <c r="AQ78" s="21"/>
-      <c r="AR78" s="21"/>
+      <c r="AR78" s="70" t="s">
+        <v>75</v>
+      </c>
       <c r="AS78" s="21"/>
       <c r="AT78" s="21"/>
       <c r="AU78" s="21"/>
@@ -7611,7 +8199,9 @@
       <c r="D79" s="4"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
+      <c r="G79" s="70" t="s">
+        <v>52</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
@@ -7659,7 +8249,9 @@
       <c r="AZ79" s="21"/>
       <c r="BA79" s="21"/>
       <c r="BB79" s="21"/>
-      <c r="BC79" s="21"/>
+      <c r="BC79" s="70" t="s">
+        <v>76</v>
+      </c>
       <c r="BD79" s="21"/>
       <c r="BE79" s="21"/>
       <c r="BF79" s="21"/>
@@ -7704,7 +8296,7 @@
       <c r="Q80" s="21"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
+      <c r="T80" s="64"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
@@ -7806,9 +8398,13 @@
       <c r="AM81" s="5"/>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
-      <c r="AP81" s="4"/>
+      <c r="AP81" s="64" t="s">
+        <v>78</v>
+      </c>
       <c r="AQ81" s="21"/>
-      <c r="AR81" s="21"/>
+      <c r="AR81" s="70" t="s">
+        <v>79</v>
+      </c>
       <c r="AS81" s="21"/>
       <c r="AT81" s="21"/>
       <c r="AU81" s="21"/>
@@ -7848,10 +8444,14 @@
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="64" t="s">
+        <v>65</v>
+      </c>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="70" t="s">
+        <v>66</v>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="21"/>
@@ -7899,7 +8499,9 @@
       <c r="AZ82" s="21"/>
       <c r="BA82" s="21"/>
       <c r="BB82" s="21"/>
-      <c r="BC82" s="21"/>
+      <c r="BC82" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="BD82" s="21"/>
       <c r="BE82" s="21"/>
       <c r="BF82" s="21"/>
@@ -7931,7 +8533,9 @@
       <c r="D83" s="4"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="70" t="s">
+        <v>67</v>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
@@ -8024,7 +8628,9 @@
       <c r="Q84" s="21"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
+      <c r="T84" s="64" t="s">
+        <v>68</v>
+      </c>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
@@ -8509,109 +9115,109 @@
       <c r="BZ90" s="4"/>
     </row>
     <row r="91" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A91" s="59" t="s">
+      <c r="A91" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="54" t="str">
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="59" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="50"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="50"/>
-      <c r="Q91" s="50"/>
-      <c r="R91" s="50"/>
-      <c r="S91" s="50"/>
-      <c r="T91" s="50"/>
-      <c r="U91" s="50"/>
-      <c r="V91" s="50"/>
-      <c r="W91" s="50"/>
-      <c r="X91" s="50"/>
-      <c r="Y91" s="50"/>
-      <c r="Z91" s="50"/>
-      <c r="AA91" s="50"/>
-      <c r="AB91" s="50"/>
-      <c r="AC91" s="50"/>
-      <c r="AD91" s="50"/>
-      <c r="AE91" s="50"/>
-      <c r="AF91" s="50"/>
-      <c r="AG91" s="50"/>
-      <c r="AH91" s="50"/>
-      <c r="AI91" s="50"/>
-      <c r="AJ91" s="50"/>
-      <c r="AK91" s="50"/>
-      <c r="AL91" s="50"/>
-      <c r="AM91" s="50"/>
-      <c r="AN91" s="50"/>
-      <c r="AO91" s="50"/>
-      <c r="AP91" s="50"/>
-      <c r="AQ91" s="50"/>
-      <c r="AR91" s="50"/>
-      <c r="AS91" s="50"/>
-      <c r="AT91" s="50"/>
-      <c r="AU91" s="50"/>
-      <c r="AV91" s="51"/>
-      <c r="AW91" s="53" t="s">
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="54"/>
+      <c r="R91" s="54"/>
+      <c r="S91" s="54"/>
+      <c r="T91" s="54"/>
+      <c r="U91" s="54"/>
+      <c r="V91" s="54"/>
+      <c r="W91" s="54"/>
+      <c r="X91" s="54"/>
+      <c r="Y91" s="54"/>
+      <c r="Z91" s="54"/>
+      <c r="AA91" s="54"/>
+      <c r="AB91" s="54"/>
+      <c r="AC91" s="54"/>
+      <c r="AD91" s="54"/>
+      <c r="AE91" s="54"/>
+      <c r="AF91" s="54"/>
+      <c r="AG91" s="54"/>
+      <c r="AH91" s="54"/>
+      <c r="AI91" s="54"/>
+      <c r="AJ91" s="54"/>
+      <c r="AK91" s="54"/>
+      <c r="AL91" s="54"/>
+      <c r="AM91" s="54"/>
+      <c r="AN91" s="54"/>
+      <c r="AO91" s="54"/>
+      <c r="AP91" s="54"/>
+      <c r="AQ91" s="54"/>
+      <c r="AR91" s="54"/>
+      <c r="AS91" s="54"/>
+      <c r="AT91" s="54"/>
+      <c r="AU91" s="54"/>
+      <c r="AV91" s="57"/>
+      <c r="AW91" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AX91" s="50"/>
-      <c r="AY91" s="50"/>
-      <c r="AZ91" s="50"/>
-      <c r="BA91" s="51"/>
-      <c r="BB91" s="49" t="str">
+      <c r="AX91" s="54"/>
+      <c r="AY91" s="54"/>
+      <c r="AZ91" s="54"/>
+      <c r="BA91" s="57"/>
+      <c r="BB91" s="53" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC91" s="50"/>
-      <c r="BD91" s="50"/>
-      <c r="BE91" s="50"/>
-      <c r="BF91" s="50"/>
-      <c r="BG91" s="50"/>
-      <c r="BH91" s="50"/>
-      <c r="BI91" s="50"/>
-      <c r="BJ91" s="51"/>
-      <c r="BK91" s="53" t="s">
+      <c r="BC91" s="54"/>
+      <c r="BD91" s="54"/>
+      <c r="BE91" s="54"/>
+      <c r="BF91" s="54"/>
+      <c r="BG91" s="54"/>
+      <c r="BH91" s="54"/>
+      <c r="BI91" s="54"/>
+      <c r="BJ91" s="57"/>
+      <c r="BK91" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BL91" s="50"/>
-      <c r="BM91" s="50"/>
-      <c r="BN91" s="50"/>
-      <c r="BO91" s="51"/>
-      <c r="BP91" s="49" t="str">
+      <c r="BL91" s="54"/>
+      <c r="BM91" s="54"/>
+      <c r="BN91" s="54"/>
+      <c r="BO91" s="57"/>
+      <c r="BP91" s="53" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ91" s="50"/>
-      <c r="BR91" s="50"/>
-      <c r="BS91" s="50"/>
-      <c r="BT91" s="50"/>
-      <c r="BU91" s="50"/>
-      <c r="BV91" s="50"/>
-      <c r="BW91" s="50"/>
-      <c r="BX91" s="52"/>
+      <c r="BQ91" s="54"/>
+      <c r="BR91" s="54"/>
+      <c r="BS91" s="54"/>
+      <c r="BT91" s="54"/>
+      <c r="BU91" s="54"/>
+      <c r="BV91" s="54"/>
+      <c r="BW91" s="54"/>
+      <c r="BX91" s="55"/>
       <c r="BY91" s="18"/>
       <c r="BZ91" s="18"/>
     </row>
     <row r="92" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A92" s="58" t="s">
+      <c r="A92" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
       <c r="D92" s="47"/>
       <c r="E92" s="48"/>
-      <c r="F92" s="57" t="str">
+      <c r="F92" s="49" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
@@ -8634,14 +9240,14 @@
       <c r="W92" s="47"/>
       <c r="X92" s="47"/>
       <c r="Y92" s="48"/>
-      <c r="Z92" s="56" t="s">
+      <c r="Z92" s="50" t="s">
         <v>7</v>
       </c>
       <c r="AA92" s="47"/>
       <c r="AB92" s="47"/>
       <c r="AC92" s="47"/>
       <c r="AD92" s="48"/>
-      <c r="AE92" s="57" t="str">
+      <c r="AE92" s="49" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
@@ -8662,16 +9268,16 @@
       <c r="AT92" s="47"/>
       <c r="AU92" s="47"/>
       <c r="AV92" s="48"/>
-      <c r="AW92" s="56" t="s">
+      <c r="AW92" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AX92" s="47"/>
       <c r="AY92" s="47"/>
       <c r="AZ92" s="47"/>
       <c r="BA92" s="48"/>
-      <c r="BB92" s="46" t="str">
+      <c r="BB92" s="51" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
-        <v/>
+        <v>2019/11/11</v>
       </c>
       <c r="BC92" s="47"/>
       <c r="BD92" s="47"/>
@@ -8681,16 +9287,16 @@
       <c r="BH92" s="47"/>
       <c r="BI92" s="47"/>
       <c r="BJ92" s="48"/>
-      <c r="BK92" s="56" t="s">
+      <c r="BK92" s="50" t="s">
         <v>9</v>
       </c>
       <c r="BL92" s="47"/>
       <c r="BM92" s="47"/>
       <c r="BN92" s="47"/>
       <c r="BO92" s="48"/>
-      <c r="BP92" s="46" t="str">
+      <c r="BP92" s="51" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
-        <v>岩田</v>
+        <v>岩田侑大</v>
       </c>
       <c r="BQ92" s="47"/>
       <c r="BR92" s="47"/>
@@ -8699,7 +9305,7 @@
       <c r="BU92" s="47"/>
       <c r="BV92" s="47"/>
       <c r="BW92" s="47"/>
-      <c r="BX92" s="55"/>
+      <c r="BX92" s="52"/>
       <c r="BY92" s="18"/>
       <c r="BZ92" s="18"/>
     </row>
@@ -8868,7 +9474,7 @@
     <row r="95" spans="1:78" ht="14.25" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -9027,7 +9633,7 @@
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D97" s="34"/>
       <c r="E97" s="34"/>
@@ -12946,7 +13552,34 @@
       <c r="BZ145" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="BB53:BJ53"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="F53:Y53"/>
     <mergeCell ref="BK92:BO92"/>
@@ -12963,32 +13596,6 @@
     <mergeCell ref="AE92:AV92"/>
     <mergeCell ref="BB92:BJ92"/>
     <mergeCell ref="Z92:AD92"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="BK53:BO53"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091E3F8-51C9-4188-BE68-E0F070B23D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940BFD04-F709-43F1-B592-643B88D9C9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,22 +576,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>０個以下の場合、カートボタンを表示せずに、</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>「完売です」と赤字表示する。</t>
     <rPh sb="1" eb="3">
       <t>カンバイ</t>
@@ -637,11 +621,43 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2019/11/11 JTM10 対応　岩田侑大</t>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イワタユウダイ</t>
+    </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>押下することで、お問い合わせフォーム画面に遷移するボタンを設置。</t>
+    <t>【お問い合わせフォームはこちらボタン押下時】</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>０個以下のとき、カートボタンを表示せずに、</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>押下することで、お問い合わせフォーム画面に遷移する。</t>
     <rPh sb="0" eb="2">
       <t>オウカ</t>
     </rPh>
@@ -656,19 +672,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>センイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>2019/11/11 JTM10 対応　岩田侑大</t>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>イワタユウダイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -1130,17 +1133,18 @@
     <xf numFmtId="19" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="19" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,6 +1164,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,18 +1179,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,8 +1834,8 @@
   </sheetPr>
   <dimension ref="A1:BZ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AN85" sqref="AN85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="AR81" sqref="AR81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1841,186 +1844,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="51" t="s">
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="58" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="53" t="s">
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="BQ1" s="54"/>
-      <c r="BR1" s="54"/>
-      <c r="BS1" s="54"/>
-      <c r="BT1" s="54"/>
-      <c r="BU1" s="54"/>
-      <c r="BV1" s="54"/>
-      <c r="BW1" s="54"/>
-      <c r="BX1" s="55"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
+      <c r="BX1" s="60"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="50" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="50" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="71" t="s">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="50" t="s">
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="47"/>
-      <c r="BO2" s="48"/>
-      <c r="BP2" s="60" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="54"/>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="55"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="59"/>
+      <c r="BU2" s="59"/>
+      <c r="BV2" s="59"/>
+      <c r="BW2" s="59"/>
+      <c r="BX2" s="60"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -5961,196 +5964,196 @@
       <c r="BZ51" s="4"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="59" t="str">
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="64" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="54"/>
-      <c r="AG52" s="54"/>
-      <c r="AH52" s="54"/>
-      <c r="AI52" s="54"/>
-      <c r="AJ52" s="54"/>
-      <c r="AK52" s="54"/>
-      <c r="AL52" s="54"/>
-      <c r="AM52" s="54"/>
-      <c r="AN52" s="54"/>
-      <c r="AO52" s="54"/>
-      <c r="AP52" s="54"/>
-      <c r="AQ52" s="54"/>
-      <c r="AR52" s="54"/>
-      <c r="AS52" s="54"/>
-      <c r="AT52" s="54"/>
-      <c r="AU52" s="54"/>
-      <c r="AV52" s="57"/>
-      <c r="AW52" s="58" t="s">
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="59"/>
+      <c r="AE52" s="59"/>
+      <c r="AF52" s="59"/>
+      <c r="AG52" s="59"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="59"/>
+      <c r="AK52" s="59"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="59"/>
+      <c r="AN52" s="59"/>
+      <c r="AO52" s="59"/>
+      <c r="AP52" s="59"/>
+      <c r="AQ52" s="59"/>
+      <c r="AR52" s="59"/>
+      <c r="AS52" s="59"/>
+      <c r="AT52" s="59"/>
+      <c r="AU52" s="59"/>
+      <c r="AV52" s="62"/>
+      <c r="AW52" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AX52" s="54"/>
-      <c r="AY52" s="54"/>
-      <c r="AZ52" s="54"/>
-      <c r="BA52" s="57"/>
-      <c r="BB52" s="53" t="str">
+      <c r="AX52" s="59"/>
+      <c r="AY52" s="59"/>
+      <c r="AZ52" s="59"/>
+      <c r="BA52" s="62"/>
+      <c r="BB52" s="58" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="54"/>
-      <c r="BD52" s="54"/>
-      <c r="BE52" s="54"/>
-      <c r="BF52" s="54"/>
-      <c r="BG52" s="54"/>
-      <c r="BH52" s="54"/>
-      <c r="BI52" s="54"/>
-      <c r="BJ52" s="57"/>
-      <c r="BK52" s="58" t="s">
+      <c r="BC52" s="59"/>
+      <c r="BD52" s="59"/>
+      <c r="BE52" s="59"/>
+      <c r="BF52" s="59"/>
+      <c r="BG52" s="59"/>
+      <c r="BH52" s="59"/>
+      <c r="BI52" s="59"/>
+      <c r="BJ52" s="62"/>
+      <c r="BK52" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BL52" s="54"/>
-      <c r="BM52" s="54"/>
-      <c r="BN52" s="54"/>
-      <c r="BO52" s="57"/>
-      <c r="BP52" s="53" t="str">
+      <c r="BL52" s="59"/>
+      <c r="BM52" s="59"/>
+      <c r="BN52" s="59"/>
+      <c r="BO52" s="62"/>
+      <c r="BP52" s="58" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ52" s="54"/>
-      <c r="BR52" s="54"/>
-      <c r="BS52" s="54"/>
-      <c r="BT52" s="54"/>
-      <c r="BU52" s="54"/>
-      <c r="BV52" s="54"/>
-      <c r="BW52" s="54"/>
-      <c r="BX52" s="55"/>
+      <c r="BQ52" s="59"/>
+      <c r="BR52" s="59"/>
+      <c r="BS52" s="59"/>
+      <c r="BT52" s="59"/>
+      <c r="BU52" s="59"/>
+      <c r="BV52" s="59"/>
+      <c r="BW52" s="59"/>
+      <c r="BX52" s="60"/>
       <c r="BY52" s="18"/>
       <c r="BZ52" s="18"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49" t="str">
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="66" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="48"/>
-      <c r="Z53" s="50" t="s">
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="49" t="str">
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="55"/>
+      <c r="AE53" s="66" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF53" s="47"/>
-      <c r="AG53" s="47"/>
-      <c r="AH53" s="47"/>
-      <c r="AI53" s="47"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="47"/>
-      <c r="AL53" s="47"/>
-      <c r="AM53" s="47"/>
-      <c r="AN53" s="47"/>
-      <c r="AO53" s="47"/>
-      <c r="AP53" s="47"/>
-      <c r="AQ53" s="47"/>
-      <c r="AR53" s="47"/>
-      <c r="AS53" s="47"/>
-      <c r="AT53" s="47"/>
-      <c r="AU53" s="47"/>
-      <c r="AV53" s="48"/>
-      <c r="AW53" s="50" t="s">
+      <c r="AF53" s="54"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="54"/>
+      <c r="AI53" s="54"/>
+      <c r="AJ53" s="54"/>
+      <c r="AK53" s="54"/>
+      <c r="AL53" s="54"/>
+      <c r="AM53" s="54"/>
+      <c r="AN53" s="54"/>
+      <c r="AO53" s="54"/>
+      <c r="AP53" s="54"/>
+      <c r="AQ53" s="54"/>
+      <c r="AR53" s="54"/>
+      <c r="AS53" s="54"/>
+      <c r="AT53" s="54"/>
+      <c r="AU53" s="54"/>
+      <c r="AV53" s="55"/>
+      <c r="AW53" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AX53" s="47"/>
-      <c r="AY53" s="47"/>
-      <c r="AZ53" s="47"/>
-      <c r="BA53" s="48"/>
-      <c r="BB53" s="71" t="s">
+      <c r="AX53" s="54"/>
+      <c r="AY53" s="54"/>
+      <c r="AZ53" s="54"/>
+      <c r="BA53" s="55"/>
+      <c r="BB53" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="BC53" s="47"/>
-      <c r="BD53" s="47"/>
-      <c r="BE53" s="47"/>
-      <c r="BF53" s="47"/>
-      <c r="BG53" s="47"/>
-      <c r="BH53" s="47"/>
-      <c r="BI53" s="47"/>
-      <c r="BJ53" s="48"/>
-      <c r="BK53" s="50" t="s">
+      <c r="BC53" s="54"/>
+      <c r="BD53" s="54"/>
+      <c r="BE53" s="54"/>
+      <c r="BF53" s="54"/>
+      <c r="BG53" s="54"/>
+      <c r="BH53" s="54"/>
+      <c r="BI53" s="54"/>
+      <c r="BJ53" s="55"/>
+      <c r="BK53" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL53" s="47"/>
-      <c r="BM53" s="47"/>
-      <c r="BN53" s="47"/>
-      <c r="BO53" s="48"/>
-      <c r="BP53" s="51" t="str">
+      <c r="BL53" s="54"/>
+      <c r="BM53" s="54"/>
+      <c r="BN53" s="54"/>
+      <c r="BO53" s="55"/>
+      <c r="BP53" s="56" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ53" s="47"/>
-      <c r="BR53" s="47"/>
-      <c r="BS53" s="47"/>
-      <c r="BT53" s="47"/>
-      <c r="BU53" s="47"/>
-      <c r="BV53" s="47"/>
-      <c r="BW53" s="47"/>
-      <c r="BX53" s="52"/>
+      <c r="BQ53" s="54"/>
+      <c r="BR53" s="54"/>
+      <c r="BS53" s="54"/>
+      <c r="BT53" s="54"/>
+      <c r="BU53" s="54"/>
+      <c r="BV53" s="54"/>
+      <c r="BW53" s="54"/>
+      <c r="BX53" s="57"/>
       <c r="BY53" s="18"/>
       <c r="BZ53" s="18"/>
     </row>
@@ -7023,10 +7026,10 @@
       <c r="N64" s="21"/>
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
-      <c r="Q64" s="63" t="s">
+      <c r="Q64" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="S64" s="64" t="s">
+      <c r="S64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="T64" s="4"/>
@@ -7075,7 +7078,7 @@
       <c r="BI64" s="21"/>
       <c r="BJ64" s="21"/>
       <c r="BK64" s="21"/>
-      <c r="BL64" s="70" t="s">
+      <c r="BL64" s="52" t="s">
         <v>58</v>
       </c>
       <c r="BM64" s="21"/>
@@ -7164,7 +7167,7 @@
       <c r="BJ65" s="21"/>
       <c r="BK65" s="21"/>
       <c r="BL65" s="21"/>
-      <c r="BM65" s="70" t="s">
+      <c r="BM65" s="52" t="s">
         <v>53</v>
       </c>
       <c r="BN65" s="21"/>
@@ -7387,13 +7390,13 @@
       <c r="AN68" s="23"/>
       <c r="AO68" s="4"/>
       <c r="AP68" s="4"/>
-      <c r="AQ68" s="65" t="s">
+      <c r="AQ68" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AW68" s="65" t="s">
+      <c r="AW68" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AX68" s="65" t="s">
+      <c r="AX68" s="48" t="s">
         <v>62</v>
       </c>
       <c r="BA68" s="21"/>
@@ -7472,7 +7475,7 @@
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
       <c r="AP69" s="4"/>
-      <c r="AX69" s="65" t="s">
+      <c r="AX69" s="48" t="s">
         <v>63</v>
       </c>
       <c r="BA69" s="21"/>
@@ -7553,7 +7556,7 @@
       <c r="AP70" s="4"/>
       <c r="BA70" s="21"/>
       <c r="BB70" s="21"/>
-      <c r="BC70" s="70" t="s">
+      <c r="BC70" s="52" t="s">
         <v>53</v>
       </c>
       <c r="BD70" s="21"/>
@@ -7615,7 +7618,7 @@
       <c r="AN71" s="23"/>
       <c r="AO71" s="4"/>
       <c r="AP71" s="4"/>
-      <c r="AQ71" s="70" t="s">
+      <c r="AQ71" s="52" t="s">
         <v>64</v>
       </c>
       <c r="AR71" s="21"/>
@@ -7623,10 +7626,10 @@
       <c r="AT71" s="21"/>
       <c r="AU71" s="21"/>
       <c r="AV71" s="21"/>
-      <c r="AW71" s="70" t="s">
+      <c r="AW71" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="AX71" s="70" t="s">
+      <c r="AX71" s="52" t="s">
         <v>69</v>
       </c>
       <c r="AY71" s="21"/>
@@ -7699,7 +7702,7 @@
       <c r="AU72" s="21"/>
       <c r="AV72" s="21"/>
       <c r="AW72" s="21"/>
-      <c r="AX72" s="70" t="s">
+      <c r="AX72" s="52" t="s">
         <v>71</v>
       </c>
       <c r="AY72" s="21"/>
@@ -7735,7 +7738,7 @@
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="67" t="s">
+      <c r="D73" s="50" t="s">
         <v>48</v>
       </c>
       <c r="G73" s="21"/>
@@ -7786,7 +7789,7 @@
       <c r="AZ73" s="21"/>
       <c r="BA73" s="21"/>
       <c r="BB73" s="21"/>
-      <c r="BC73" s="70" t="s">
+      <c r="BC73" s="52" t="s">
         <v>70</v>
       </c>
       <c r="BD73" s="21"/>
@@ -7822,7 +7825,7 @@
       <c r="Q74" s="21"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="68" t="s">
+      <c r="T74" s="51" t="s">
         <v>50</v>
       </c>
       <c r="U74" s="4"/>
@@ -7880,11 +7883,11 @@
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="69">
+      <c r="D75" s="71">
         <v>1.3</v>
       </c>
-      <c r="E75" s="69"/>
-      <c r="G75" s="65" t="s">
+      <c r="E75" s="71"/>
+      <c r="G75" s="48" t="s">
         <v>61</v>
       </c>
       <c r="O75" s="21"/>
@@ -7914,11 +7917,11 @@
       <c r="AM75" s="5"/>
       <c r="AN75" s="23"/>
       <c r="AO75" s="4"/>
-      <c r="AP75" s="68" t="s">
-        <v>77</v>
+      <c r="AP75" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="AQ75" s="21"/>
-      <c r="AR75" s="70" t="s">
+      <c r="AR75" s="52" t="s">
         <v>72</v>
       </c>
       <c r="AS75" s="21"/>
@@ -7960,7 +7963,7 @@
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="G76" s="66" t="s">
+      <c r="G76" s="49" t="s">
         <v>46</v>
       </c>
       <c r="O76" s="21"/>
@@ -7992,7 +7995,7 @@
       <c r="AO76" s="4"/>
       <c r="AP76" s="4"/>
       <c r="AQ76" s="21"/>
-      <c r="AR76" s="70" t="s">
+      <c r="AR76" s="52" t="s">
         <v>73</v>
       </c>
       <c r="AS76" s="21"/>
@@ -8034,7 +8037,7 @@
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="65"/>
+      <c r="D77" s="48"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
@@ -8072,8 +8075,8 @@
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
       <c r="AQ77" s="21"/>
-      <c r="AR77" s="70" t="s">
-        <v>74</v>
+      <c r="AR77" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="AS77" s="21"/>
       <c r="AT77" s="21"/>
@@ -8114,10 +8117,10 @@
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="65" t="s">
+      <c r="D78" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G78" s="70" t="s">
+      <c r="G78" s="52" t="s">
         <v>51</v>
       </c>
       <c r="H78" s="21"/>
@@ -8154,8 +8157,8 @@
       <c r="AO78" s="4"/>
       <c r="AP78" s="4"/>
       <c r="AQ78" s="21"/>
-      <c r="AR78" s="70" t="s">
-        <v>75</v>
+      <c r="AR78" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="AS78" s="21"/>
       <c r="AT78" s="21"/>
@@ -8199,7 +8202,7 @@
       <c r="D79" s="4"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="70" t="s">
+      <c r="G79" s="52" t="s">
         <v>52</v>
       </c>
       <c r="H79" s="21"/>
@@ -8249,8 +8252,8 @@
       <c r="AZ79" s="21"/>
       <c r="BA79" s="21"/>
       <c r="BB79" s="21"/>
-      <c r="BC79" s="70" t="s">
-        <v>76</v>
+      <c r="BC79" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="BD79" s="21"/>
       <c r="BE79" s="21"/>
@@ -8296,7 +8299,7 @@
       <c r="Q80" s="21"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="64"/>
+      <c r="T80" s="47"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
@@ -8317,7 +8320,9 @@
       <c r="AL80" s="4"/>
       <c r="AM80" s="5"/>
       <c r="AN80" s="4"/>
-      <c r="AO80" s="4"/>
+      <c r="AO80" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="AP80" s="4"/>
       <c r="AQ80" s="21"/>
       <c r="AR80" s="21"/>
@@ -8398,12 +8403,10 @@
       <c r="AM81" s="5"/>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
-      <c r="AP81" s="64" t="s">
-        <v>78</v>
-      </c>
+      <c r="AP81" s="47"/>
       <c r="AQ81" s="21"/>
-      <c r="AR81" s="70" t="s">
-        <v>79</v>
+      <c r="AR81" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="AS81" s="21"/>
       <c r="AT81" s="21"/>
@@ -8444,12 +8447,12 @@
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="64" t="s">
+      <c r="D82" s="47" t="s">
         <v>65</v>
       </c>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="70" t="s">
+      <c r="G82" s="52" t="s">
         <v>66</v>
       </c>
       <c r="H82" s="21"/>
@@ -8499,8 +8502,8 @@
       <c r="AZ82" s="21"/>
       <c r="BA82" s="21"/>
       <c r="BB82" s="21"/>
-      <c r="BC82" s="70" t="s">
-        <v>80</v>
+      <c r="BC82" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="BD82" s="21"/>
       <c r="BE82" s="21"/>
@@ -8533,7 +8536,7 @@
       <c r="D83" s="4"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="70" t="s">
+      <c r="G83" s="52" t="s">
         <v>67</v>
       </c>
       <c r="H83" s="21"/>
@@ -8628,7 +8631,7 @@
       <c r="Q84" s="21"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="64" t="s">
+      <c r="T84" s="47" t="s">
         <v>68</v>
       </c>
       <c r="U84" s="4"/>
@@ -9115,197 +9118,197 @@
       <c r="BZ90" s="4"/>
     </row>
     <row r="91" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="54"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="59" t="str">
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="64" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
-      <c r="O91" s="54"/>
-      <c r="P91" s="54"/>
-      <c r="Q91" s="54"/>
-      <c r="R91" s="54"/>
-      <c r="S91" s="54"/>
-      <c r="T91" s="54"/>
-      <c r="U91" s="54"/>
-      <c r="V91" s="54"/>
-      <c r="W91" s="54"/>
-      <c r="X91" s="54"/>
-      <c r="Y91" s="54"/>
-      <c r="Z91" s="54"/>
-      <c r="AA91" s="54"/>
-      <c r="AB91" s="54"/>
-      <c r="AC91" s="54"/>
-      <c r="AD91" s="54"/>
-      <c r="AE91" s="54"/>
-      <c r="AF91" s="54"/>
-      <c r="AG91" s="54"/>
-      <c r="AH91" s="54"/>
-      <c r="AI91" s="54"/>
-      <c r="AJ91" s="54"/>
-      <c r="AK91" s="54"/>
-      <c r="AL91" s="54"/>
-      <c r="AM91" s="54"/>
-      <c r="AN91" s="54"/>
-      <c r="AO91" s="54"/>
-      <c r="AP91" s="54"/>
-      <c r="AQ91" s="54"/>
-      <c r="AR91" s="54"/>
-      <c r="AS91" s="54"/>
-      <c r="AT91" s="54"/>
-      <c r="AU91" s="54"/>
-      <c r="AV91" s="57"/>
-      <c r="AW91" s="58" t="s">
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="59"/>
+      <c r="S91" s="59"/>
+      <c r="T91" s="59"/>
+      <c r="U91" s="59"/>
+      <c r="V91" s="59"/>
+      <c r="W91" s="59"/>
+      <c r="X91" s="59"/>
+      <c r="Y91" s="59"/>
+      <c r="Z91" s="59"/>
+      <c r="AA91" s="59"/>
+      <c r="AB91" s="59"/>
+      <c r="AC91" s="59"/>
+      <c r="AD91" s="59"/>
+      <c r="AE91" s="59"/>
+      <c r="AF91" s="59"/>
+      <c r="AG91" s="59"/>
+      <c r="AH91" s="59"/>
+      <c r="AI91" s="59"/>
+      <c r="AJ91" s="59"/>
+      <c r="AK91" s="59"/>
+      <c r="AL91" s="59"/>
+      <c r="AM91" s="59"/>
+      <c r="AN91" s="59"/>
+      <c r="AO91" s="59"/>
+      <c r="AP91" s="59"/>
+      <c r="AQ91" s="59"/>
+      <c r="AR91" s="59"/>
+      <c r="AS91" s="59"/>
+      <c r="AT91" s="59"/>
+      <c r="AU91" s="59"/>
+      <c r="AV91" s="62"/>
+      <c r="AW91" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AX91" s="54"/>
-      <c r="AY91" s="54"/>
-      <c r="AZ91" s="54"/>
-      <c r="BA91" s="57"/>
-      <c r="BB91" s="53" t="str">
+      <c r="AX91" s="59"/>
+      <c r="AY91" s="59"/>
+      <c r="AZ91" s="59"/>
+      <c r="BA91" s="62"/>
+      <c r="BB91" s="58" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC91" s="54"/>
-      <c r="BD91" s="54"/>
-      <c r="BE91" s="54"/>
-      <c r="BF91" s="54"/>
-      <c r="BG91" s="54"/>
-      <c r="BH91" s="54"/>
-      <c r="BI91" s="54"/>
-      <c r="BJ91" s="57"/>
-      <c r="BK91" s="58" t="s">
+      <c r="BC91" s="59"/>
+      <c r="BD91" s="59"/>
+      <c r="BE91" s="59"/>
+      <c r="BF91" s="59"/>
+      <c r="BG91" s="59"/>
+      <c r="BH91" s="59"/>
+      <c r="BI91" s="59"/>
+      <c r="BJ91" s="62"/>
+      <c r="BK91" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BL91" s="54"/>
-      <c r="BM91" s="54"/>
-      <c r="BN91" s="54"/>
-      <c r="BO91" s="57"/>
-      <c r="BP91" s="53" t="str">
+      <c r="BL91" s="59"/>
+      <c r="BM91" s="59"/>
+      <c r="BN91" s="59"/>
+      <c r="BO91" s="62"/>
+      <c r="BP91" s="58" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ91" s="54"/>
-      <c r="BR91" s="54"/>
-      <c r="BS91" s="54"/>
-      <c r="BT91" s="54"/>
-      <c r="BU91" s="54"/>
-      <c r="BV91" s="54"/>
-      <c r="BW91" s="54"/>
-      <c r="BX91" s="55"/>
+      <c r="BQ91" s="59"/>
+      <c r="BR91" s="59"/>
+      <c r="BS91" s="59"/>
+      <c r="BT91" s="59"/>
+      <c r="BU91" s="59"/>
+      <c r="BV91" s="59"/>
+      <c r="BW91" s="59"/>
+      <c r="BX91" s="60"/>
       <c r="BY91" s="18"/>
       <c r="BZ91" s="18"/>
     </row>
     <row r="92" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="49" t="str">
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="66" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="48"/>
-      <c r="Z92" s="50" t="s">
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="54"/>
+      <c r="P92" s="54"/>
+      <c r="Q92" s="54"/>
+      <c r="R92" s="54"/>
+      <c r="S92" s="54"/>
+      <c r="T92" s="54"/>
+      <c r="U92" s="54"/>
+      <c r="V92" s="54"/>
+      <c r="W92" s="54"/>
+      <c r="X92" s="54"/>
+      <c r="Y92" s="55"/>
+      <c r="Z92" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="48"/>
-      <c r="AE92" s="49" t="str">
+      <c r="AA92" s="54"/>
+      <c r="AB92" s="54"/>
+      <c r="AC92" s="54"/>
+      <c r="AD92" s="55"/>
+      <c r="AE92" s="66" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="47"/>
-      <c r="AI92" s="47"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="47"/>
-      <c r="AL92" s="47"/>
-      <c r="AM92" s="47"/>
-      <c r="AN92" s="47"/>
-      <c r="AO92" s="47"/>
-      <c r="AP92" s="47"/>
-      <c r="AQ92" s="47"/>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="48"/>
-      <c r="AW92" s="50" t="s">
+      <c r="AF92" s="54"/>
+      <c r="AG92" s="54"/>
+      <c r="AH92" s="54"/>
+      <c r="AI92" s="54"/>
+      <c r="AJ92" s="54"/>
+      <c r="AK92" s="54"/>
+      <c r="AL92" s="54"/>
+      <c r="AM92" s="54"/>
+      <c r="AN92" s="54"/>
+      <c r="AO92" s="54"/>
+      <c r="AP92" s="54"/>
+      <c r="AQ92" s="54"/>
+      <c r="AR92" s="54"/>
+      <c r="AS92" s="54"/>
+      <c r="AT92" s="54"/>
+      <c r="AU92" s="54"/>
+      <c r="AV92" s="55"/>
+      <c r="AW92" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AX92" s="47"/>
-      <c r="AY92" s="47"/>
-      <c r="AZ92" s="47"/>
-      <c r="BA92" s="48"/>
-      <c r="BB92" s="51" t="str">
+      <c r="AX92" s="54"/>
+      <c r="AY92" s="54"/>
+      <c r="AZ92" s="54"/>
+      <c r="BA92" s="55"/>
+      <c r="BB92" s="56" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/11/11</v>
       </c>
-      <c r="BC92" s="47"/>
-      <c r="BD92" s="47"/>
-      <c r="BE92" s="47"/>
-      <c r="BF92" s="47"/>
-      <c r="BG92" s="47"/>
-      <c r="BH92" s="47"/>
-      <c r="BI92" s="47"/>
-      <c r="BJ92" s="48"/>
-      <c r="BK92" s="50" t="s">
+      <c r="BC92" s="54"/>
+      <c r="BD92" s="54"/>
+      <c r="BE92" s="54"/>
+      <c r="BF92" s="54"/>
+      <c r="BG92" s="54"/>
+      <c r="BH92" s="54"/>
+      <c r="BI92" s="54"/>
+      <c r="BJ92" s="55"/>
+      <c r="BK92" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL92" s="47"/>
-      <c r="BM92" s="47"/>
-      <c r="BN92" s="47"/>
-      <c r="BO92" s="48"/>
-      <c r="BP92" s="51" t="str">
+      <c r="BL92" s="54"/>
+      <c r="BM92" s="54"/>
+      <c r="BN92" s="54"/>
+      <c r="BO92" s="55"/>
+      <c r="BP92" s="56" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ92" s="47"/>
-      <c r="BR92" s="47"/>
-      <c r="BS92" s="47"/>
-      <c r="BT92" s="47"/>
-      <c r="BU92" s="47"/>
-      <c r="BV92" s="47"/>
-      <c r="BW92" s="47"/>
-      <c r="BX92" s="52"/>
+      <c r="BQ92" s="54"/>
+      <c r="BR92" s="54"/>
+      <c r="BS92" s="54"/>
+      <c r="BT92" s="54"/>
+      <c r="BU92" s="54"/>
+      <c r="BV92" s="54"/>
+      <c r="BW92" s="54"/>
+      <c r="BX92" s="57"/>
       <c r="BY92" s="18"/>
       <c r="BZ92" s="18"/>
     </row>
@@ -13564,6 +13567,8 @@
     <mergeCell ref="AE53:AV53"/>
     <mergeCell ref="Z53:AD53"/>
     <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:Y53"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A1:E1"/>
@@ -13580,8 +13585,6 @@
     <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:Y53"/>
     <mergeCell ref="BK92:BO92"/>
     <mergeCell ref="BP92:BX92"/>
     <mergeCell ref="BP91:BX91"/>

--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940BFD04-F709-43F1-B592-643B88D9C9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB789B-4C89-4025-97CE-7631C745019C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品詳細画面" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AF7C189D-0053-4426-A69B-6A93C6DAE749}</author>
+    <author>tc={28501E31-BA29-4A64-AA24-99BA8D1AD4B2}</author>
+    <author>tc={1789ED1F-5108-4B3D-82F4-AAD0171A0943}</author>
+  </authors>
+  <commentList>
+    <comment ref="AX68" authorId="0" shapeId="0" xr:uid="{AF7C189D-0053-4426-A69B-6A93C6DAE749}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    1.3.1ないです。</t>
+      </text>
+    </comment>
+    <comment ref="AO80" authorId="1" shapeId="0" xr:uid="{28501E31-BA29-4A64-AA24-99BA8D1AD4B2}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    初期画面表示にも問い合わせフォームボタンの表示について加えた方が良いですかね。</t>
+      </text>
+    </comment>
+    <comment ref="BC82" authorId="2" shapeId="0" xr:uid="{1789ED1F-5108-4B3D-82F4-AAD0171A0943}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    画面設計書の方のラベリングが違うっぽいですね。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -201,6 +237,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>　</t>
     </r>
@@ -262,6 +300,8 @@
       <rPr>
         <sz val="11"/>
         <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -615,6 +655,8 @@
       <rPr>
         <sz val="11"/>
         <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -680,7 +722,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -690,19 +732,27 @@
       <b/>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -718,11 +768,15 @@
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -759,6 +813,20 @@
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1140,34 +1208,40 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,12 +1252,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,6 +1600,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="office365 user9" id="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" userId="office365 user9" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1827,15 +1901,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AX68" dT="2019-11-12T05:36:23.16" personId="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" id="{AF7C189D-0053-4426-A69B-6A93C6DAE749}">
+    <text>1.3.1ないです。</text>
+  </threadedComment>
+  <threadedComment ref="AO80" dT="2019-11-12T05:28:16.88" personId="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" id="{28501E31-BA29-4A64-AA24-99BA8D1AD4B2}">
+    <text>初期画面表示にも問い合わせフォームボタンの表示について加えた方が良いですかね。</text>
+  </threadedComment>
+  <threadedComment ref="BC82" dT="2019-11-12T05:25:44.19" personId="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" id="{1789ED1F-5108-4B3D-82F4-AAD0171A0943}">
+    <text>画面設計書の方のラベリングが違うっぽいですね。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BZ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="AR81" sqref="AR81"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="AX68" sqref="AX68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1844,185 +1932,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="63" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="56" t="s">
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="63" t="s">
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="58" t="s">
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
       <c r="BX1" s="60"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="53" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="53" t="s">
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="70" t="s">
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="53" t="s">
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="67" t="s">
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="BQ2" s="59"/>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="59"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
       <c r="BX2" s="60"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
@@ -5964,196 +6052,196 @@
       <c r="BZ51" s="4"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="64" t="str">
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="62" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
-      <c r="Y52" s="59"/>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="59"/>
-      <c r="AB52" s="59"/>
-      <c r="AC52" s="59"/>
-      <c r="AD52" s="59"/>
-      <c r="AE52" s="59"/>
-      <c r="AF52" s="59"/>
-      <c r="AG52" s="59"/>
-      <c r="AH52" s="59"/>
-      <c r="AI52" s="59"/>
-      <c r="AJ52" s="59"/>
-      <c r="AK52" s="59"/>
-      <c r="AL52" s="59"/>
-      <c r="AM52" s="59"/>
-      <c r="AN52" s="59"/>
-      <c r="AO52" s="59"/>
-      <c r="AP52" s="59"/>
-      <c r="AQ52" s="59"/>
-      <c r="AR52" s="59"/>
-      <c r="AS52" s="59"/>
-      <c r="AT52" s="59"/>
-      <c r="AU52" s="59"/>
-      <c r="AV52" s="62"/>
-      <c r="AW52" s="63" t="s">
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="58"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="58"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="58"/>
+      <c r="AJ52" s="58"/>
+      <c r="AK52" s="58"/>
+      <c r="AL52" s="58"/>
+      <c r="AM52" s="58"/>
+      <c r="AN52" s="58"/>
+      <c r="AO52" s="58"/>
+      <c r="AP52" s="58"/>
+      <c r="AQ52" s="58"/>
+      <c r="AR52" s="58"/>
+      <c r="AS52" s="58"/>
+      <c r="AT52" s="58"/>
+      <c r="AU52" s="58"/>
+      <c r="AV52" s="59"/>
+      <c r="AW52" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AX52" s="59"/>
-      <c r="AY52" s="59"/>
-      <c r="AZ52" s="59"/>
-      <c r="BA52" s="62"/>
-      <c r="BB52" s="58" t="str">
+      <c r="AX52" s="58"/>
+      <c r="AY52" s="58"/>
+      <c r="AZ52" s="58"/>
+      <c r="BA52" s="59"/>
+      <c r="BB52" s="57" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="59"/>
-      <c r="BD52" s="59"/>
-      <c r="BE52" s="59"/>
-      <c r="BF52" s="59"/>
-      <c r="BG52" s="59"/>
-      <c r="BH52" s="59"/>
-      <c r="BI52" s="59"/>
-      <c r="BJ52" s="62"/>
-      <c r="BK52" s="63" t="s">
+      <c r="BC52" s="58"/>
+      <c r="BD52" s="58"/>
+      <c r="BE52" s="58"/>
+      <c r="BF52" s="58"/>
+      <c r="BG52" s="58"/>
+      <c r="BH52" s="58"/>
+      <c r="BI52" s="58"/>
+      <c r="BJ52" s="59"/>
+      <c r="BK52" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BL52" s="59"/>
-      <c r="BM52" s="59"/>
-      <c r="BN52" s="59"/>
-      <c r="BO52" s="62"/>
-      <c r="BP52" s="58" t="str">
+      <c r="BL52" s="58"/>
+      <c r="BM52" s="58"/>
+      <c r="BN52" s="58"/>
+      <c r="BO52" s="59"/>
+      <c r="BP52" s="57" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ52" s="59"/>
-      <c r="BR52" s="59"/>
-      <c r="BS52" s="59"/>
-      <c r="BT52" s="59"/>
-      <c r="BU52" s="59"/>
-      <c r="BV52" s="59"/>
-      <c r="BW52" s="59"/>
+      <c r="BQ52" s="58"/>
+      <c r="BR52" s="58"/>
+      <c r="BS52" s="58"/>
+      <c r="BT52" s="58"/>
+      <c r="BU52" s="58"/>
+      <c r="BV52" s="58"/>
+      <c r="BW52" s="58"/>
       <c r="BX52" s="60"/>
       <c r="BY52" s="18"/>
       <c r="BZ52" s="18"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="66" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="55"/>
-      <c r="Z53" s="53" t="s">
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="55"/>
+      <c r="AA53" s="55"/>
+      <c r="AB53" s="55"/>
+      <c r="AC53" s="55"/>
+      <c r="AD53" s="56"/>
       <c r="AE53" s="66" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF53" s="54"/>
-      <c r="AG53" s="54"/>
-      <c r="AH53" s="54"/>
-      <c r="AI53" s="54"/>
-      <c r="AJ53" s="54"/>
-      <c r="AK53" s="54"/>
-      <c r="AL53" s="54"/>
-      <c r="AM53" s="54"/>
-      <c r="AN53" s="54"/>
-      <c r="AO53" s="54"/>
-      <c r="AP53" s="54"/>
-      <c r="AQ53" s="54"/>
-      <c r="AR53" s="54"/>
-      <c r="AS53" s="54"/>
-      <c r="AT53" s="54"/>
-      <c r="AU53" s="54"/>
-      <c r="AV53" s="55"/>
-      <c r="AW53" s="53" t="s">
+      <c r="AF53" s="55"/>
+      <c r="AG53" s="55"/>
+      <c r="AH53" s="55"/>
+      <c r="AI53" s="55"/>
+      <c r="AJ53" s="55"/>
+      <c r="AK53" s="55"/>
+      <c r="AL53" s="55"/>
+      <c r="AM53" s="55"/>
+      <c r="AN53" s="55"/>
+      <c r="AO53" s="55"/>
+      <c r="AP53" s="55"/>
+      <c r="AQ53" s="55"/>
+      <c r="AR53" s="55"/>
+      <c r="AS53" s="55"/>
+      <c r="AT53" s="55"/>
+      <c r="AU53" s="55"/>
+      <c r="AV53" s="56"/>
+      <c r="AW53" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AX53" s="54"/>
-      <c r="AY53" s="54"/>
-      <c r="AZ53" s="54"/>
-      <c r="BA53" s="55"/>
-      <c r="BB53" s="70" t="s">
+      <c r="AX53" s="55"/>
+      <c r="AY53" s="55"/>
+      <c r="AZ53" s="55"/>
+      <c r="BA53" s="56"/>
+      <c r="BB53" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="BC53" s="54"/>
-      <c r="BD53" s="54"/>
-      <c r="BE53" s="54"/>
-      <c r="BF53" s="54"/>
-      <c r="BG53" s="54"/>
-      <c r="BH53" s="54"/>
-      <c r="BI53" s="54"/>
-      <c r="BJ53" s="55"/>
-      <c r="BK53" s="53" t="s">
+      <c r="BC53" s="55"/>
+      <c r="BD53" s="55"/>
+      <c r="BE53" s="55"/>
+      <c r="BF53" s="55"/>
+      <c r="BG53" s="55"/>
+      <c r="BH53" s="55"/>
+      <c r="BI53" s="55"/>
+      <c r="BJ53" s="56"/>
+      <c r="BK53" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="BL53" s="54"/>
-      <c r="BM53" s="54"/>
-      <c r="BN53" s="54"/>
-      <c r="BO53" s="55"/>
-      <c r="BP53" s="56" t="str">
+      <c r="BL53" s="55"/>
+      <c r="BM53" s="55"/>
+      <c r="BN53" s="55"/>
+      <c r="BO53" s="56"/>
+      <c r="BP53" s="63" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ53" s="54"/>
-      <c r="BR53" s="54"/>
-      <c r="BS53" s="54"/>
-      <c r="BT53" s="54"/>
-      <c r="BU53" s="54"/>
-      <c r="BV53" s="54"/>
-      <c r="BW53" s="54"/>
-      <c r="BX53" s="57"/>
+      <c r="BQ53" s="55"/>
+      <c r="BR53" s="55"/>
+      <c r="BS53" s="55"/>
+      <c r="BT53" s="55"/>
+      <c r="BU53" s="55"/>
+      <c r="BV53" s="55"/>
+      <c r="BW53" s="55"/>
+      <c r="BX53" s="64"/>
       <c r="BY53" s="18"/>
       <c r="BZ53" s="18"/>
     </row>
@@ -7883,10 +7971,10 @@
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="71">
+      <c r="D75" s="53">
         <v>1.3</v>
       </c>
-      <c r="E75" s="71"/>
+      <c r="E75" s="53"/>
       <c r="G75" s="48" t="s">
         <v>61</v>
       </c>
@@ -9118,197 +9206,197 @@
       <c r="BZ90" s="4"/>
     </row>
     <row r="91" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="59"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="64" t="str">
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="62" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="59"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="59"/>
-      <c r="S91" s="59"/>
-      <c r="T91" s="59"/>
-      <c r="U91" s="59"/>
-      <c r="V91" s="59"/>
-      <c r="W91" s="59"/>
-      <c r="X91" s="59"/>
-      <c r="Y91" s="59"/>
-      <c r="Z91" s="59"/>
-      <c r="AA91" s="59"/>
-      <c r="AB91" s="59"/>
-      <c r="AC91" s="59"/>
-      <c r="AD91" s="59"/>
-      <c r="AE91" s="59"/>
-      <c r="AF91" s="59"/>
-      <c r="AG91" s="59"/>
-      <c r="AH91" s="59"/>
-      <c r="AI91" s="59"/>
-      <c r="AJ91" s="59"/>
-      <c r="AK91" s="59"/>
-      <c r="AL91" s="59"/>
-      <c r="AM91" s="59"/>
-      <c r="AN91" s="59"/>
-      <c r="AO91" s="59"/>
-      <c r="AP91" s="59"/>
-      <c r="AQ91" s="59"/>
-      <c r="AR91" s="59"/>
-      <c r="AS91" s="59"/>
-      <c r="AT91" s="59"/>
-      <c r="AU91" s="59"/>
-      <c r="AV91" s="62"/>
-      <c r="AW91" s="63" t="s">
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="58"/>
+      <c r="S91" s="58"/>
+      <c r="T91" s="58"/>
+      <c r="U91" s="58"/>
+      <c r="V91" s="58"/>
+      <c r="W91" s="58"/>
+      <c r="X91" s="58"/>
+      <c r="Y91" s="58"/>
+      <c r="Z91" s="58"/>
+      <c r="AA91" s="58"/>
+      <c r="AB91" s="58"/>
+      <c r="AC91" s="58"/>
+      <c r="AD91" s="58"/>
+      <c r="AE91" s="58"/>
+      <c r="AF91" s="58"/>
+      <c r="AG91" s="58"/>
+      <c r="AH91" s="58"/>
+      <c r="AI91" s="58"/>
+      <c r="AJ91" s="58"/>
+      <c r="AK91" s="58"/>
+      <c r="AL91" s="58"/>
+      <c r="AM91" s="58"/>
+      <c r="AN91" s="58"/>
+      <c r="AO91" s="58"/>
+      <c r="AP91" s="58"/>
+      <c r="AQ91" s="58"/>
+      <c r="AR91" s="58"/>
+      <c r="AS91" s="58"/>
+      <c r="AT91" s="58"/>
+      <c r="AU91" s="58"/>
+      <c r="AV91" s="59"/>
+      <c r="AW91" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AX91" s="59"/>
-      <c r="AY91" s="59"/>
-      <c r="AZ91" s="59"/>
-      <c r="BA91" s="62"/>
-      <c r="BB91" s="58" t="str">
+      <c r="AX91" s="58"/>
+      <c r="AY91" s="58"/>
+      <c r="AZ91" s="58"/>
+      <c r="BA91" s="59"/>
+      <c r="BB91" s="57" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC91" s="59"/>
-      <c r="BD91" s="59"/>
-      <c r="BE91" s="59"/>
-      <c r="BF91" s="59"/>
-      <c r="BG91" s="59"/>
-      <c r="BH91" s="59"/>
-      <c r="BI91" s="59"/>
-      <c r="BJ91" s="62"/>
-      <c r="BK91" s="63" t="s">
+      <c r="BC91" s="58"/>
+      <c r="BD91" s="58"/>
+      <c r="BE91" s="58"/>
+      <c r="BF91" s="58"/>
+      <c r="BG91" s="58"/>
+      <c r="BH91" s="58"/>
+      <c r="BI91" s="58"/>
+      <c r="BJ91" s="59"/>
+      <c r="BK91" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BL91" s="59"/>
-      <c r="BM91" s="59"/>
-      <c r="BN91" s="59"/>
-      <c r="BO91" s="62"/>
-      <c r="BP91" s="58" t="str">
+      <c r="BL91" s="58"/>
+      <c r="BM91" s="58"/>
+      <c r="BN91" s="58"/>
+      <c r="BO91" s="59"/>
+      <c r="BP91" s="57" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ91" s="59"/>
-      <c r="BR91" s="59"/>
-      <c r="BS91" s="59"/>
-      <c r="BT91" s="59"/>
-      <c r="BU91" s="59"/>
-      <c r="BV91" s="59"/>
-      <c r="BW91" s="59"/>
+      <c r="BQ91" s="58"/>
+      <c r="BR91" s="58"/>
+      <c r="BS91" s="58"/>
+      <c r="BT91" s="58"/>
+      <c r="BU91" s="58"/>
+      <c r="BV91" s="58"/>
+      <c r="BW91" s="58"/>
       <c r="BX91" s="60"/>
       <c r="BY91" s="18"/>
       <c r="BZ91" s="18"/>
     </row>
     <row r="92" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="54"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="55"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="66" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="54"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="54"/>
-      <c r="O92" s="54"/>
-      <c r="P92" s="54"/>
-      <c r="Q92" s="54"/>
-      <c r="R92" s="54"/>
-      <c r="S92" s="54"/>
-      <c r="T92" s="54"/>
-      <c r="U92" s="54"/>
-      <c r="V92" s="54"/>
-      <c r="W92" s="54"/>
-      <c r="X92" s="54"/>
-      <c r="Y92" s="55"/>
-      <c r="Z92" s="53" t="s">
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="55"/>
+      <c r="P92" s="55"/>
+      <c r="Q92" s="55"/>
+      <c r="R92" s="55"/>
+      <c r="S92" s="55"/>
+      <c r="T92" s="55"/>
+      <c r="U92" s="55"/>
+      <c r="V92" s="55"/>
+      <c r="W92" s="55"/>
+      <c r="X92" s="55"/>
+      <c r="Y92" s="56"/>
+      <c r="Z92" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AA92" s="54"/>
-      <c r="AB92" s="54"/>
-      <c r="AC92" s="54"/>
-      <c r="AD92" s="55"/>
+      <c r="AA92" s="55"/>
+      <c r="AB92" s="55"/>
+      <c r="AC92" s="55"/>
+      <c r="AD92" s="56"/>
       <c r="AE92" s="66" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF92" s="54"/>
-      <c r="AG92" s="54"/>
-      <c r="AH92" s="54"/>
-      <c r="AI92" s="54"/>
-      <c r="AJ92" s="54"/>
-      <c r="AK92" s="54"/>
-      <c r="AL92" s="54"/>
-      <c r="AM92" s="54"/>
-      <c r="AN92" s="54"/>
-      <c r="AO92" s="54"/>
-      <c r="AP92" s="54"/>
-      <c r="AQ92" s="54"/>
-      <c r="AR92" s="54"/>
-      <c r="AS92" s="54"/>
-      <c r="AT92" s="54"/>
-      <c r="AU92" s="54"/>
-      <c r="AV92" s="55"/>
-      <c r="AW92" s="53" t="s">
+      <c r="AF92" s="55"/>
+      <c r="AG92" s="55"/>
+      <c r="AH92" s="55"/>
+      <c r="AI92" s="55"/>
+      <c r="AJ92" s="55"/>
+      <c r="AK92" s="55"/>
+      <c r="AL92" s="55"/>
+      <c r="AM92" s="55"/>
+      <c r="AN92" s="55"/>
+      <c r="AO92" s="55"/>
+      <c r="AP92" s="55"/>
+      <c r="AQ92" s="55"/>
+      <c r="AR92" s="55"/>
+      <c r="AS92" s="55"/>
+      <c r="AT92" s="55"/>
+      <c r="AU92" s="55"/>
+      <c r="AV92" s="56"/>
+      <c r="AW92" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AX92" s="54"/>
-      <c r="AY92" s="54"/>
-      <c r="AZ92" s="54"/>
-      <c r="BA92" s="55"/>
-      <c r="BB92" s="56" t="str">
+      <c r="AX92" s="55"/>
+      <c r="AY92" s="55"/>
+      <c r="AZ92" s="55"/>
+      <c r="BA92" s="56"/>
+      <c r="BB92" s="63" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/11/11</v>
       </c>
-      <c r="BC92" s="54"/>
-      <c r="BD92" s="54"/>
-      <c r="BE92" s="54"/>
-      <c r="BF92" s="54"/>
-      <c r="BG92" s="54"/>
-      <c r="BH92" s="54"/>
-      <c r="BI92" s="54"/>
-      <c r="BJ92" s="55"/>
-      <c r="BK92" s="53" t="s">
+      <c r="BC92" s="55"/>
+      <c r="BD92" s="55"/>
+      <c r="BE92" s="55"/>
+      <c r="BF92" s="55"/>
+      <c r="BG92" s="55"/>
+      <c r="BH92" s="55"/>
+      <c r="BI92" s="55"/>
+      <c r="BJ92" s="56"/>
+      <c r="BK92" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="BL92" s="54"/>
-      <c r="BM92" s="54"/>
-      <c r="BN92" s="54"/>
-      <c r="BO92" s="55"/>
-      <c r="BP92" s="56" t="str">
+      <c r="BL92" s="55"/>
+      <c r="BM92" s="55"/>
+      <c r="BN92" s="55"/>
+      <c r="BO92" s="56"/>
+      <c r="BP92" s="63" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ92" s="54"/>
-      <c r="BR92" s="54"/>
-      <c r="BS92" s="54"/>
-      <c r="BT92" s="54"/>
-      <c r="BU92" s="54"/>
-      <c r="BV92" s="54"/>
-      <c r="BW92" s="54"/>
-      <c r="BX92" s="57"/>
+      <c r="BQ92" s="55"/>
+      <c r="BR92" s="55"/>
+      <c r="BS92" s="55"/>
+      <c r="BT92" s="55"/>
+      <c r="BU92" s="55"/>
+      <c r="BV92" s="55"/>
+      <c r="BW92" s="55"/>
+      <c r="BX92" s="64"/>
       <c r="BY92" s="18"/>
       <c r="BZ92" s="18"/>
     </row>
@@ -13556,35 +13644,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:Y53"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BK92:BO92"/>
     <mergeCell ref="BP92:BX92"/>
     <mergeCell ref="BP91:BX91"/>
@@ -13599,10 +13658,40 @@
     <mergeCell ref="AE92:AV92"/>
     <mergeCell ref="BB92:BJ92"/>
     <mergeCell ref="Z92:AD92"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="BB53:BJ53"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:Y53"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書(商品詳細).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB789B-4C89-4025-97CE-7631C745019C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5402E083-15DF-411F-BA5B-865CD506B57B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品詳細画面" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     1.3.1ないです。</t>
       </text>
     </comment>
-    <comment ref="AO80" authorId="1" shapeId="0" xr:uid="{28501E31-BA29-4A64-AA24-99BA8D1AD4B2}">
+    <comment ref="AO82" authorId="1" shapeId="0" xr:uid="{28501E31-BA29-4A64-AA24-99BA8D1AD4B2}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
     初期画面表示にも問い合わせフォームボタンの表示について加えた方が良いですかね。</t>
       </text>
     </comment>
-    <comment ref="BC82" authorId="2" shapeId="0" xr:uid="{1789ED1F-5108-4B3D-82F4-AAD0171A0943}">
+    <comment ref="BC84" authorId="2" shapeId="0" xr:uid="{1789ED1F-5108-4B3D-82F4-AAD0171A0943}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>システム名</t>
   </si>
@@ -448,16 +448,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>1.3.1で算出した参考価格を</t>
-    <rPh sb="6" eb="8">
-      <t>サンシュツ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>サンコウカカク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>\N,NNN,NNNの形式で表示し上から打消し線を挿入する。</t>
     <rPh sb="11" eb="13">
       <t>ケイシキ</t>
@@ -717,12 +707,41 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>1.6</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>お問合せフォームはこちらボタン</t>
+    <rPh sb="1" eb="3">
+      <t>トイアワ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.3.2で算出した参考価格を</t>
+    <rPh sb="6" eb="8">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>サンコウカカク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -818,13 +837,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1208,40 +1220,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1252,6 +1258,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1906,10 +1918,10 @@
   <threadedComment ref="AX68" dT="2019-11-12T05:36:23.16" personId="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" id="{AF7C189D-0053-4426-A69B-6A93C6DAE749}">
     <text>1.3.1ないです。</text>
   </threadedComment>
-  <threadedComment ref="AO80" dT="2019-11-12T05:28:16.88" personId="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" id="{28501E31-BA29-4A64-AA24-99BA8D1AD4B2}">
+  <threadedComment ref="AO82" dT="2019-11-12T05:28:16.88" personId="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" id="{28501E31-BA29-4A64-AA24-99BA8D1AD4B2}">
     <text>初期画面表示にも問い合わせフォームボタンの表示について加えた方が良いですかね。</text>
   </threadedComment>
-  <threadedComment ref="BC82" dT="2019-11-12T05:25:44.19" personId="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" id="{1789ED1F-5108-4B3D-82F4-AAD0171A0943}">
+  <threadedComment ref="BC84" dT="2019-11-12T05:25:44.19" personId="{DAF00DA0-D85C-4DB7-9AFE-B4337031DCFF}" id="{1789ED1F-5108-4B3D-82F4-AAD0171A0943}">
     <text>画面設計書の方のラベリングが違うっぽいですね。</text>
   </threadedComment>
 </ThreadedComments>
@@ -1922,8 +1934,8 @@
   </sheetPr>
   <dimension ref="A1:BZ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="AX68" sqref="AX68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AP77" sqref="AP77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1932,185 +1944,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="61" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="57" t="s">
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
       <c r="BX1" s="60"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="65" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="65" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="54" t="s">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="55"/>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="65" t="s">
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="56"/>
-      <c r="BP2" s="69" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="58"/>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="58"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="59"/>
+      <c r="BU2" s="59"/>
+      <c r="BV2" s="59"/>
+      <c r="BW2" s="59"/>
       <c r="BX2" s="60"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
@@ -6052,196 +6064,196 @@
       <c r="BZ51" s="4"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="62" t="str">
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="64" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="58"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="58"/>
-      <c r="V52" s="58"/>
-      <c r="W52" s="58"/>
-      <c r="X52" s="58"/>
-      <c r="Y52" s="58"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="58"/>
-      <c r="AC52" s="58"/>
-      <c r="AD52" s="58"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="58"/>
-      <c r="AI52" s="58"/>
-      <c r="AJ52" s="58"/>
-      <c r="AK52" s="58"/>
-      <c r="AL52" s="58"/>
-      <c r="AM52" s="58"/>
-      <c r="AN52" s="58"/>
-      <c r="AO52" s="58"/>
-      <c r="AP52" s="58"/>
-      <c r="AQ52" s="58"/>
-      <c r="AR52" s="58"/>
-      <c r="AS52" s="58"/>
-      <c r="AT52" s="58"/>
-      <c r="AU52" s="58"/>
-      <c r="AV52" s="59"/>
-      <c r="AW52" s="61" t="s">
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="59"/>
+      <c r="AE52" s="59"/>
+      <c r="AF52" s="59"/>
+      <c r="AG52" s="59"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="59"/>
+      <c r="AK52" s="59"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="59"/>
+      <c r="AN52" s="59"/>
+      <c r="AO52" s="59"/>
+      <c r="AP52" s="59"/>
+      <c r="AQ52" s="59"/>
+      <c r="AR52" s="59"/>
+      <c r="AS52" s="59"/>
+      <c r="AT52" s="59"/>
+      <c r="AU52" s="59"/>
+      <c r="AV52" s="62"/>
+      <c r="AW52" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AX52" s="58"/>
-      <c r="AY52" s="58"/>
-      <c r="AZ52" s="58"/>
-      <c r="BA52" s="59"/>
-      <c r="BB52" s="57" t="str">
+      <c r="AX52" s="59"/>
+      <c r="AY52" s="59"/>
+      <c r="AZ52" s="59"/>
+      <c r="BA52" s="62"/>
+      <c r="BB52" s="58" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="58"/>
-      <c r="BD52" s="58"/>
-      <c r="BE52" s="58"/>
-      <c r="BF52" s="58"/>
-      <c r="BG52" s="58"/>
-      <c r="BH52" s="58"/>
-      <c r="BI52" s="58"/>
-      <c r="BJ52" s="59"/>
-      <c r="BK52" s="61" t="s">
+      <c r="BC52" s="59"/>
+      <c r="BD52" s="59"/>
+      <c r="BE52" s="59"/>
+      <c r="BF52" s="59"/>
+      <c r="BG52" s="59"/>
+      <c r="BH52" s="59"/>
+      <c r="BI52" s="59"/>
+      <c r="BJ52" s="62"/>
+      <c r="BK52" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BL52" s="58"/>
-      <c r="BM52" s="58"/>
-      <c r="BN52" s="58"/>
-      <c r="BO52" s="59"/>
-      <c r="BP52" s="57" t="str">
+      <c r="BL52" s="59"/>
+      <c r="BM52" s="59"/>
+      <c r="BN52" s="59"/>
+      <c r="BO52" s="62"/>
+      <c r="BP52" s="58" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ52" s="58"/>
-      <c r="BR52" s="58"/>
-      <c r="BS52" s="58"/>
-      <c r="BT52" s="58"/>
-      <c r="BU52" s="58"/>
-      <c r="BV52" s="58"/>
-      <c r="BW52" s="58"/>
+      <c r="BQ52" s="59"/>
+      <c r="BR52" s="59"/>
+      <c r="BS52" s="59"/>
+      <c r="BT52" s="59"/>
+      <c r="BU52" s="59"/>
+      <c r="BV52" s="59"/>
+      <c r="BW52" s="59"/>
       <c r="BX52" s="60"/>
       <c r="BY52" s="18"/>
       <c r="BZ52" s="18"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="56"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="66" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
-      <c r="W53" s="55"/>
-      <c r="X53" s="55"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="65" t="s">
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA53" s="55"/>
-      <c r="AB53" s="55"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="56"/>
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="55"/>
       <c r="AE53" s="66" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="55"/>
-      <c r="AI53" s="55"/>
-      <c r="AJ53" s="55"/>
-      <c r="AK53" s="55"/>
-      <c r="AL53" s="55"/>
-      <c r="AM53" s="55"/>
-      <c r="AN53" s="55"/>
-      <c r="AO53" s="55"/>
-      <c r="AP53" s="55"/>
-      <c r="AQ53" s="55"/>
-      <c r="AR53" s="55"/>
-      <c r="AS53" s="55"/>
-      <c r="AT53" s="55"/>
-      <c r="AU53" s="55"/>
-      <c r="AV53" s="56"/>
-      <c r="AW53" s="65" t="s">
+      <c r="AF53" s="54"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="54"/>
+      <c r="AI53" s="54"/>
+      <c r="AJ53" s="54"/>
+      <c r="AK53" s="54"/>
+      <c r="AL53" s="54"/>
+      <c r="AM53" s="54"/>
+      <c r="AN53" s="54"/>
+      <c r="AO53" s="54"/>
+      <c r="AP53" s="54"/>
+      <c r="AQ53" s="54"/>
+      <c r="AR53" s="54"/>
+      <c r="AS53" s="54"/>
+      <c r="AT53" s="54"/>
+      <c r="AU53" s="54"/>
+      <c r="AV53" s="55"/>
+      <c r="AW53" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AX53" s="55"/>
-      <c r="AY53" s="55"/>
-      <c r="AZ53" s="55"/>
-      <c r="BA53" s="56"/>
-      <c r="BB53" s="54" t="s">
+      <c r="AX53" s="54"/>
+      <c r="AY53" s="54"/>
+      <c r="AZ53" s="54"/>
+      <c r="BA53" s="55"/>
+      <c r="BB53" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="BC53" s="55"/>
-      <c r="BD53" s="55"/>
-      <c r="BE53" s="55"/>
-      <c r="BF53" s="55"/>
-      <c r="BG53" s="55"/>
-      <c r="BH53" s="55"/>
-      <c r="BI53" s="55"/>
-      <c r="BJ53" s="56"/>
-      <c r="BK53" s="65" t="s">
+      <c r="BC53" s="54"/>
+      <c r="BD53" s="54"/>
+      <c r="BE53" s="54"/>
+      <c r="BF53" s="54"/>
+      <c r="BG53" s="54"/>
+      <c r="BH53" s="54"/>
+      <c r="BI53" s="54"/>
+      <c r="BJ53" s="55"/>
+      <c r="BK53" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL53" s="55"/>
-      <c r="BM53" s="55"/>
-      <c r="BN53" s="55"/>
-      <c r="BO53" s="56"/>
-      <c r="BP53" s="63" t="str">
+      <c r="BL53" s="54"/>
+      <c r="BM53" s="54"/>
+      <c r="BN53" s="54"/>
+      <c r="BO53" s="55"/>
+      <c r="BP53" s="56" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ53" s="55"/>
-      <c r="BR53" s="55"/>
-      <c r="BS53" s="55"/>
-      <c r="BT53" s="55"/>
-      <c r="BU53" s="55"/>
-      <c r="BV53" s="55"/>
-      <c r="BW53" s="55"/>
-      <c r="BX53" s="64"/>
+      <c r="BQ53" s="54"/>
+      <c r="BR53" s="54"/>
+      <c r="BS53" s="54"/>
+      <c r="BT53" s="54"/>
+      <c r="BU53" s="54"/>
+      <c r="BV53" s="54"/>
+      <c r="BW53" s="54"/>
+      <c r="BX53" s="57"/>
       <c r="BY53" s="18"/>
       <c r="BZ53" s="18"/>
     </row>
@@ -7485,7 +7497,7 @@
         <v>60</v>
       </c>
       <c r="AX68" s="48" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="BA68" s="21"/>
       <c r="BB68" s="21"/>
@@ -7564,7 +7576,7 @@
       <c r="AO69" s="4"/>
       <c r="AP69" s="4"/>
       <c r="AX69" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BA69" s="21"/>
       <c r="BB69" s="21"/>
@@ -7707,7 +7719,7 @@
       <c r="AO71" s="4"/>
       <c r="AP71" s="4"/>
       <c r="AQ71" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AR71" s="21"/>
       <c r="AS71" s="21"/>
@@ -7718,7 +7730,7 @@
         <v>60</v>
       </c>
       <c r="AX71" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AY71" s="21"/>
       <c r="AZ71" s="21"/>
@@ -7791,7 +7803,7 @@
       <c r="AV72" s="21"/>
       <c r="AW72" s="21"/>
       <c r="AX72" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY72" s="21"/>
       <c r="AZ72" s="21"/>
@@ -7878,7 +7890,7 @@
       <c r="BA73" s="21"/>
       <c r="BB73" s="21"/>
       <c r="BC73" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BD73" s="21"/>
       <c r="BE73" s="21"/>
@@ -7971,10 +7983,10 @@
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="53">
+      <c r="D75" s="71">
         <v>1.3</v>
       </c>
-      <c r="E75" s="53"/>
+      <c r="E75" s="71"/>
       <c r="G75" s="48" t="s">
         <v>61</v>
       </c>
@@ -8006,11 +8018,11 @@
       <c r="AN75" s="23"/>
       <c r="AO75" s="4"/>
       <c r="AP75" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ75" s="21"/>
       <c r="AR75" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AS75" s="21"/>
       <c r="AT75" s="21"/>
@@ -8084,7 +8096,7 @@
       <c r="AP76" s="4"/>
       <c r="AQ76" s="21"/>
       <c r="AR76" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS76" s="21"/>
       <c r="AT76" s="21"/>
@@ -8164,7 +8176,7 @@
       <c r="AP77" s="4"/>
       <c r="AQ77" s="21"/>
       <c r="AR77" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS77" s="21"/>
       <c r="AT77" s="21"/>
@@ -8246,7 +8258,7 @@
       <c r="AP78" s="4"/>
       <c r="AQ78" s="21"/>
       <c r="AR78" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AS78" s="21"/>
       <c r="AT78" s="21"/>
@@ -8341,7 +8353,7 @@
       <c r="BA79" s="21"/>
       <c r="BB79" s="21"/>
       <c r="BC79" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BD79" s="21"/>
       <c r="BE79" s="21"/>
@@ -8408,12 +8420,13 @@
       <c r="AL80" s="4"/>
       <c r="AM80" s="5"/>
       <c r="AN80" s="4"/>
-      <c r="AO80" s="47" t="s">
-        <v>78</v>
+      <c r="AP80" s="47" t="s">
+        <v>80</v>
       </c>
-      <c r="AP80" s="4"/>
       <c r="AQ80" s="21"/>
-      <c r="AR80" s="21"/>
+      <c r="AR80" s="52" t="s">
+        <v>81</v>
+      </c>
       <c r="AS80" s="21"/>
       <c r="AT80" s="21"/>
       <c r="AU80" s="21"/>
@@ -8427,8 +8440,12 @@
       <c r="BC80" s="21"/>
       <c r="BD80" s="21"/>
       <c r="BE80" s="21"/>
-      <c r="BF80" s="21"/>
-      <c r="BG80" s="21"/>
+      <c r="BF80" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG80" s="52" t="s">
+        <v>83</v>
+      </c>
       <c r="BH80" s="21"/>
       <c r="BI80" s="21"/>
       <c r="BJ80" s="21"/>
@@ -8493,9 +8510,6 @@
       <c r="AO81" s="4"/>
       <c r="AP81" s="47"/>
       <c r="AQ81" s="21"/>
-      <c r="AR81" s="52" t="s">
-        <v>80</v>
-      </c>
       <c r="AS81" s="21"/>
       <c r="AT81" s="21"/>
       <c r="AU81" s="21"/>
@@ -8536,12 +8550,12 @@
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
       <c r="G82" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
@@ -8576,7 +8590,9 @@
       <c r="AL82" s="4"/>
       <c r="AM82" s="5"/>
       <c r="AN82" s="4"/>
-      <c r="AO82" s="4"/>
+      <c r="AO82" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="AP82" s="4"/>
       <c r="AQ82" s="21"/>
       <c r="AR82" s="21"/>
@@ -8590,9 +8606,6 @@
       <c r="AZ82" s="21"/>
       <c r="BA82" s="21"/>
       <c r="BB82" s="21"/>
-      <c r="BC82" s="52" t="s">
-        <v>77</v>
-      </c>
       <c r="BD82" s="21"/>
       <c r="BE82" s="21"/>
       <c r="BF82" s="21"/>
@@ -8625,7 +8638,7 @@
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
       <c r="G83" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
@@ -8663,7 +8676,9 @@
       <c r="AO83" s="4"/>
       <c r="AP83" s="4"/>
       <c r="AQ83" s="21"/>
-      <c r="AR83" s="21"/>
+      <c r="AR83" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="AS83" s="21"/>
       <c r="AT83" s="21"/>
       <c r="AU83" s="21"/>
@@ -8720,7 +8735,7 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
       <c r="T84" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -8756,7 +8771,9 @@
       <c r="AZ84" s="21"/>
       <c r="BA84" s="21"/>
       <c r="BB84" s="21"/>
-      <c r="BC84" s="21"/>
+      <c r="BC84" s="52" t="s">
+        <v>76</v>
+      </c>
       <c r="BD84" s="21"/>
       <c r="BE84" s="21"/>
       <c r="BF84" s="21"/>
@@ -9206,197 +9223,197 @@
       <c r="BZ90" s="4"/>
     </row>
     <row r="91" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="62" t="str">
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="64" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v/>
       </c>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="58"/>
-      <c r="M91" s="58"/>
-      <c r="N91" s="58"/>
-      <c r="O91" s="58"/>
-      <c r="P91" s="58"/>
-      <c r="Q91" s="58"/>
-      <c r="R91" s="58"/>
-      <c r="S91" s="58"/>
-      <c r="T91" s="58"/>
-      <c r="U91" s="58"/>
-      <c r="V91" s="58"/>
-      <c r="W91" s="58"/>
-      <c r="X91" s="58"/>
-      <c r="Y91" s="58"/>
-      <c r="Z91" s="58"/>
-      <c r="AA91" s="58"/>
-      <c r="AB91" s="58"/>
-      <c r="AC91" s="58"/>
-      <c r="AD91" s="58"/>
-      <c r="AE91" s="58"/>
-      <c r="AF91" s="58"/>
-      <c r="AG91" s="58"/>
-      <c r="AH91" s="58"/>
-      <c r="AI91" s="58"/>
-      <c r="AJ91" s="58"/>
-      <c r="AK91" s="58"/>
-      <c r="AL91" s="58"/>
-      <c r="AM91" s="58"/>
-      <c r="AN91" s="58"/>
-      <c r="AO91" s="58"/>
-      <c r="AP91" s="58"/>
-      <c r="AQ91" s="58"/>
-      <c r="AR91" s="58"/>
-      <c r="AS91" s="58"/>
-      <c r="AT91" s="58"/>
-      <c r="AU91" s="58"/>
-      <c r="AV91" s="59"/>
-      <c r="AW91" s="61" t="s">
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="59"/>
+      <c r="S91" s="59"/>
+      <c r="T91" s="59"/>
+      <c r="U91" s="59"/>
+      <c r="V91" s="59"/>
+      <c r="W91" s="59"/>
+      <c r="X91" s="59"/>
+      <c r="Y91" s="59"/>
+      <c r="Z91" s="59"/>
+      <c r="AA91" s="59"/>
+      <c r="AB91" s="59"/>
+      <c r="AC91" s="59"/>
+      <c r="AD91" s="59"/>
+      <c r="AE91" s="59"/>
+      <c r="AF91" s="59"/>
+      <c r="AG91" s="59"/>
+      <c r="AH91" s="59"/>
+      <c r="AI91" s="59"/>
+      <c r="AJ91" s="59"/>
+      <c r="AK91" s="59"/>
+      <c r="AL91" s="59"/>
+      <c r="AM91" s="59"/>
+      <c r="AN91" s="59"/>
+      <c r="AO91" s="59"/>
+      <c r="AP91" s="59"/>
+      <c r="AQ91" s="59"/>
+      <c r="AR91" s="59"/>
+      <c r="AS91" s="59"/>
+      <c r="AT91" s="59"/>
+      <c r="AU91" s="59"/>
+      <c r="AV91" s="62"/>
+      <c r="AW91" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AX91" s="58"/>
-      <c r="AY91" s="58"/>
-      <c r="AZ91" s="58"/>
-      <c r="BA91" s="59"/>
-      <c r="BB91" s="57" t="str">
+      <c r="AX91" s="59"/>
+      <c r="AY91" s="59"/>
+      <c r="AZ91" s="59"/>
+      <c r="BA91" s="62"/>
+      <c r="BB91" s="58" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC91" s="58"/>
-      <c r="BD91" s="58"/>
-      <c r="BE91" s="58"/>
-      <c r="BF91" s="58"/>
-      <c r="BG91" s="58"/>
-      <c r="BH91" s="58"/>
-      <c r="BI91" s="58"/>
-      <c r="BJ91" s="59"/>
-      <c r="BK91" s="61" t="s">
+      <c r="BC91" s="59"/>
+      <c r="BD91" s="59"/>
+      <c r="BE91" s="59"/>
+      <c r="BF91" s="59"/>
+      <c r="BG91" s="59"/>
+      <c r="BH91" s="59"/>
+      <c r="BI91" s="59"/>
+      <c r="BJ91" s="62"/>
+      <c r="BK91" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BL91" s="58"/>
-      <c r="BM91" s="58"/>
-      <c r="BN91" s="58"/>
-      <c r="BO91" s="59"/>
-      <c r="BP91" s="57" t="str">
+      <c r="BL91" s="59"/>
+      <c r="BM91" s="59"/>
+      <c r="BN91" s="59"/>
+      <c r="BO91" s="62"/>
+      <c r="BP91" s="58" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>安尾 彩里</v>
       </c>
-      <c r="BQ91" s="58"/>
-      <c r="BR91" s="58"/>
-      <c r="BS91" s="58"/>
-      <c r="BT91" s="58"/>
-      <c r="BU91" s="58"/>
-      <c r="BV91" s="58"/>
-      <c r="BW91" s="58"/>
+      <c r="BQ91" s="59"/>
+      <c r="BR91" s="59"/>
+      <c r="BS91" s="59"/>
+      <c r="BT91" s="59"/>
+      <c r="BU91" s="59"/>
+      <c r="BV91" s="59"/>
+      <c r="BW91" s="59"/>
       <c r="BX91" s="60"/>
       <c r="BY91" s="18"/>
       <c r="BZ91" s="18"/>
     </row>
     <row r="92" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="56"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="55"/>
       <c r="F92" s="66" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>商品詳細</v>
       </c>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="55"/>
-      <c r="U92" s="55"/>
-      <c r="V92" s="55"/>
-      <c r="W92" s="55"/>
-      <c r="X92" s="55"/>
-      <c r="Y92" s="56"/>
-      <c r="Z92" s="65" t="s">
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="54"/>
+      <c r="P92" s="54"/>
+      <c r="Q92" s="54"/>
+      <c r="R92" s="54"/>
+      <c r="S92" s="54"/>
+      <c r="T92" s="54"/>
+      <c r="U92" s="54"/>
+      <c r="V92" s="54"/>
+      <c r="W92" s="54"/>
+      <c r="X92" s="54"/>
+      <c r="Y92" s="55"/>
+      <c r="Z92" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA92" s="55"/>
-      <c r="AB92" s="55"/>
-      <c r="AC92" s="55"/>
-      <c r="AD92" s="56"/>
+      <c r="AA92" s="54"/>
+      <c r="AB92" s="54"/>
+      <c r="AC92" s="54"/>
+      <c r="AD92" s="55"/>
       <c r="AE92" s="66" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v/>
       </c>
-      <c r="AF92" s="55"/>
-      <c r="AG92" s="55"/>
-      <c r="AH92" s="55"/>
-      <c r="AI92" s="55"/>
-      <c r="AJ92" s="55"/>
-      <c r="AK92" s="55"/>
-      <c r="AL92" s="55"/>
-      <c r="AM92" s="55"/>
-      <c r="AN92" s="55"/>
-      <c r="AO92" s="55"/>
-      <c r="AP92" s="55"/>
-      <c r="AQ92" s="55"/>
-      <c r="AR92" s="55"/>
-      <c r="AS92" s="55"/>
-      <c r="AT92" s="55"/>
-      <c r="AU92" s="55"/>
-      <c r="AV92" s="56"/>
-      <c r="AW92" s="65" t="s">
+      <c r="AF92" s="54"/>
+      <c r="AG92" s="54"/>
+      <c r="AH92" s="54"/>
+      <c r="AI92" s="54"/>
+      <c r="AJ92" s="54"/>
+      <c r="AK92" s="54"/>
+      <c r="AL92" s="54"/>
+      <c r="AM92" s="54"/>
+      <c r="AN92" s="54"/>
+      <c r="AO92" s="54"/>
+      <c r="AP92" s="54"/>
+      <c r="AQ92" s="54"/>
+      <c r="AR92" s="54"/>
+      <c r="AS92" s="54"/>
+      <c r="AT92" s="54"/>
+      <c r="AU92" s="54"/>
+      <c r="AV92" s="55"/>
+      <c r="AW92" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AX92" s="55"/>
-      <c r="AY92" s="55"/>
-      <c r="AZ92" s="55"/>
-      <c r="BA92" s="56"/>
-      <c r="BB92" s="63" t="str">
+      <c r="AX92" s="54"/>
+      <c r="AY92" s="54"/>
+      <c r="AZ92" s="54"/>
+      <c r="BA92" s="55"/>
+      <c r="BB92" s="56" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/11/11</v>
       </c>
-      <c r="BC92" s="55"/>
-      <c r="BD92" s="55"/>
-      <c r="BE92" s="55"/>
-      <c r="BF92" s="55"/>
-      <c r="BG92" s="55"/>
-      <c r="BH92" s="55"/>
-      <c r="BI92" s="55"/>
-      <c r="BJ92" s="56"/>
-      <c r="BK92" s="65" t="s">
+      <c r="BC92" s="54"/>
+      <c r="BD92" s="54"/>
+      <c r="BE92" s="54"/>
+      <c r="BF92" s="54"/>
+      <c r="BG92" s="54"/>
+      <c r="BH92" s="54"/>
+      <c r="BI92" s="54"/>
+      <c r="BJ92" s="55"/>
+      <c r="BK92" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BL92" s="55"/>
-      <c r="BM92" s="55"/>
-      <c r="BN92" s="55"/>
-      <c r="BO92" s="56"/>
-      <c r="BP92" s="63" t="str">
+      <c r="BL92" s="54"/>
+      <c r="BM92" s="54"/>
+      <c r="BN92" s="54"/>
+      <c r="BO92" s="55"/>
+      <c r="BP92" s="56" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ92" s="55"/>
-      <c r="BR92" s="55"/>
-      <c r="BS92" s="55"/>
-      <c r="BT92" s="55"/>
-      <c r="BU92" s="55"/>
-      <c r="BV92" s="55"/>
-      <c r="BW92" s="55"/>
-      <c r="BX92" s="64"/>
+      <c r="BQ92" s="54"/>
+      <c r="BR92" s="54"/>
+      <c r="BS92" s="54"/>
+      <c r="BT92" s="54"/>
+      <c r="BU92" s="54"/>
+      <c r="BV92" s="54"/>
+      <c r="BW92" s="54"/>
+      <c r="BX92" s="57"/>
       <c r="BY92" s="18"/>
       <c r="BZ92" s="18"/>
     </row>
@@ -13644,6 +13661,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="BB53:BJ53"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:Y53"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BK92:BO92"/>
     <mergeCell ref="BP92:BX92"/>
     <mergeCell ref="BP91:BX91"/>
@@ -13658,35 +13704,6 @@
     <mergeCell ref="AE92:AV92"/>
     <mergeCell ref="BB92:BJ92"/>
     <mergeCell ref="Z92:AD92"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:Y53"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
